--- a/Design and Execution/testCases.xlsx
+++ b/Design and Execution/testCases.xlsx
@@ -5,10 +5,10 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Ismael\Desktop\Tecnologia\SpeedUp Tech\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Ismael\Desktop\Tecnologia\SpeedUp Tech\Repositorios Pet-Store\Repository-PetStore-Design and execution\Design and Execution\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{32E2BD9C-A89E-471A-8D3B-10B763256236}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{68F7A8AA-EC55-4E0E-B280-3193941254BF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="24240" windowHeight="13140" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="277" uniqueCount="130">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="402" uniqueCount="199">
   <si>
     <t>Identificador</t>
   </si>
@@ -86,6 +86,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="Arial"/>
+        <family val="2"/>
       </rPr>
       <t xml:space="preserve">                           2. Metadata del FormData </t>
     </r>
@@ -104,6 +105,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="Arial"/>
+        <family val="2"/>
       </rPr>
       <t xml:space="preserve">                               3. File del FormData para subir la imagen: </t>
     </r>
@@ -147,6 +149,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="Arial"/>
+        <family val="2"/>
       </rPr>
       <t xml:space="preserve">          2. Metadata del FormData </t>
     </r>
@@ -175,6 +178,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="Arial"/>
+        <family val="2"/>
       </rPr>
       <t xml:space="preserve">                             3. File del FormData para subir la imagen: </t>
     </r>
@@ -218,6 +222,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="Arial"/>
+        <family val="2"/>
       </rPr>
       <t xml:space="preserve">          2. Metadata del FormData </t>
     </r>
@@ -246,6 +251,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="Arial"/>
+        <family val="2"/>
       </rPr>
       <t xml:space="preserve">                       3. File del FormData para subir la imagen: </t>
     </r>
@@ -289,6 +295,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="Arial"/>
+        <family val="2"/>
       </rPr>
       <t xml:space="preserve">          2. Metadata del FormData </t>
     </r>
@@ -317,6 +324,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="Arial"/>
+        <family val="2"/>
       </rPr>
       <t xml:space="preserve">                            3. File del FormData para subir la imagen: </t>
     </r>
@@ -329,1006 +337,6 @@
         <family val="2"/>
       </rPr>
       <t>String (Incorrecto)</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">1. Id: </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">Número autogenerado </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">                  2.Categoría:                               id:</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color rgb="FF00B050"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">1(Correcto) </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF00B050"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">                                   name:</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color rgb="FF00B050"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t>Gatos(Correcto)</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF00B050"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">                          3. Name: </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color rgb="FF00B050"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t>Pelusa(Correcto)</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF00B050"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">  </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">            4. PhotoUrls: </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color rgb="FF00B050"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">https://images.pexels.com/photos/45201/kitty-cat-kitten-pet-45201.jpeg?auto=compress&amp;cs=tinysrgb&amp;w=600 </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">                                    5.Tags:</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">                                    id: </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color rgb="FF00B050"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t>1</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">   </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">                                name: </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color rgb="FF00B050"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t>Gato</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF00B050"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">  </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">                       6. status: </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color rgb="FF00B050"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t>available</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">1. Id: </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">Número autogenerado </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">                  2.Categoría:                               id:</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color rgb="FF00B050"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">1(Correcto) </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">                                    name:</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color rgb="FF00B050"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t>gatos(Correcto)</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">                           3. Name: </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color rgb="FF00B050"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t>Pelusa(Correcto)</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF00B050"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">  </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">            4. PhotoUrls: </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color rgb="FF00B050"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t>https://images.pexels.com/photos/45201/kitty-cat-kitten-pet-45201.jpeg?auto=compress&amp;cs=tinysrgb&amp;w=600(Correcto)</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF00B050"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">   </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">                                5.Tags:</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">                                    id: de</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">(Incorrecto) </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">                                name: </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color rgb="FF00B050"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t>Gato</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF00B050"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color rgb="FF00B050"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve"> (Correcto) </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">                     6. status: </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color rgb="FF00B050"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t>available (Correcto)</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">1. Id: </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">Número autogenerado </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">                  2.Categoría:                               id:</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color rgb="FF00B050"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t>1(Correcto)</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">                                    name:</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color rgb="FF00B050"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t>gatos(Correcto)</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">                           3. Name: </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color rgb="FF00B050"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t>Pelusa(Correcto)</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">              4. PhotoUrls: </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color rgb="FF00B050"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t>https://images.pexels.com/photos/45201/kitty-cat-kitten-pet-45201.jpeg?auto=compress&amp;cs=tinysrgb&amp;w=600(Correcto)</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF00B050"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">      </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">                             5.Tags:</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">                                    id: </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF00B050"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t>1</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color rgb="FF00B050"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve"> (Correcto)</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">  </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">  </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">                              name: </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color rgb="FF00B050"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t>Gato</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF00B050"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color rgb="FF00B050"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve"> (Correcto)</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">                     6. status: 25</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t>(Incorrecto)</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">1. ID: </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color rgb="FF00B050"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t>1</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color rgb="FF00B050"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">(Correcto)  </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">                           2. Name: </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color rgb="FF00B050"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t>Gato (Correcto)</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">                          3. Status: </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color rgb="FF00B050"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t>Available (Correcto)</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">1. ID: </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">f (Incorrecto)  </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">  </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">                         2. Name: </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color rgb="FF00B050"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t>Gato (Correcto)</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">                          3. Status: </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color rgb="FF00B050"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t>Available (Correcto)</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">1. ID: </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color rgb="FF00B050"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">1 (Correcto)  </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">  </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">                         2. Name: </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">ASDF6 (Incorrecto)     </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">                     3. Status: </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color rgb="FF00B050"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t>Available (Correcto)</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">1. ID: </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color rgb="FF00B050"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">1 (Correcto)  </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">  </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">                         2. Name: </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color rgb="FF00B050"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">Gatos (Correcto) </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">    </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">                     3. Status: </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t>FGVB2 (Incorrecto)</t>
     </r>
   </si>
   <si>
@@ -1455,74 +463,6 @@
     </r>
   </si>
   <si>
-    <r>
-      <t>1. URL: url/pet/</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color rgb="FF00B050"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t>1</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color rgb="FF00B050"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t>(Correcto)</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t>1. URL: url/pet/</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t>gato</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t>(Incorrecto)</t>
-    </r>
-  </si>
-  <si>
     <t>No.</t>
   </si>
   <si>
@@ -1628,16 +568,7 @@
     <t>Filtrar a las mascotas por id</t>
   </si>
   <si>
-    <t>Eliminar mascotas de la tienda para depurar la información por id</t>
-  </si>
-  <si>
     <t>1. Tener configurados los Metodos HTTP, entre ellos el POST     2. Tener descargado POSTMAN                    3. Tener la URL de la tienda de mascotas funcionando                  4. Tener identificados los tipos de mascotas con un número</t>
-  </si>
-  <si>
-    <t>1. Tener configurados los Metodos HTTP, entre ellos el POST     2. Tener descargado POSTMAN                    3. Tener la URL de la tienda de mascotas funcionando                  4. Tener toda la información que se ingresa en el campo Body del POSTMAN</t>
-  </si>
-  <si>
-    <t>1. Tener configurados los Metodos HTTP, entre ellos el PUT      2. Tener descargado POSTMAN                    3. Tener la URL de la tienda de mascotas funcionando                  4. Tener toda la información que se ingresa en el campo Body del POSTMAN</t>
   </si>
   <si>
     <t>1. Ingresar a POSTMAN                        2. Abrir una solicitud POST e ingresar una dirección con la siguiente estructura en el campo POST: URL/pet                          3. En el body opción raw configurar la estructura de envío con los datos de entrada en formato JSON                              4. Presionar el botón SEND.</t>
@@ -1655,28 +586,7 @@
     <t>1. Ingresar a POSTMAN                        2. Abrir una solicitud DELETE e ingresar una dirección con la siguiente estructura en el campo DELETE: url/pet/{petId}                                                   3. Presionar el botón SEND.</t>
   </si>
   <si>
-    <t>Mostrar un status code 400 con la siguiente respuesta:                                  Pet not found</t>
-  </si>
-  <si>
-    <t>Mostrar un status code 201 con la información de la mascota creada</t>
-  </si>
-  <si>
-    <t>Mostrar un status code 405 con el siguiente mensaje: Invalid Put</t>
-  </si>
-  <si>
     <t>Mostrar un status code 200 con la información de la mascota actualizada</t>
-  </si>
-  <si>
-    <t>Mostrar un status code 405 con la siguiente respuesta:                                  Invalid input</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Mostrar un status code 200 con la información de la mascota actualizada.                        </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Mostrar un status code 400 con el siguiente mensaje: Pet not found.                        </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Mostrar un status code 405 con el siguiente mensaje: Invalid Input.                        </t>
   </si>
   <si>
     <t>Mostrar un status code 200 con una lista de las mascotas.</t>
@@ -1689,9 +599,6 @@
   </si>
   <si>
     <t xml:space="preserve">Mostrar un status code 400 con el mensaje: Pet not found.                             </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Mostrar un status code 200 con el mensaje: Eliminando Mascota.                             </t>
   </si>
   <si>
     <t>Ismael Carvajal</t>
@@ -1715,2577 +622,10 @@
     <t>1. Tener configurados los Metodos HTTP, entre ellos el POST              2. Tener descargado POSTMAN                    3. Tener la URL de la tienda de mascotas funcionando                      4. Tener identificados los tipos de mascotas con un número</t>
   </si>
   <si>
-    <t>1. Tener configurados los Metodos HTTP, entre ellos el POST             2. Tener descargado POSTMAN                    3. Tener la URL de la tienda de mascotas funcionando                      4. Tener toda la información que se ingresa en el campo Body del POSTMAN</t>
-  </si>
-  <si>
-    <t>1. Tener configurados los Metodos HTTP, entre ellos el POST             2. Tener descargado POSTMAN                    3. Tener la URL de la tienda de mascotas funcionando                     4. Tener toda la información que se ingresa en el campo Body del POSTMAN</t>
-  </si>
-  <si>
-    <t>1. Tener configurados los Metodos HTTP, entre ellos el PUT                 2. Tener descargado POSTMAN                    3. Tener la URL de la tienda de mascotas funcionando                     4. Tener toda la información que se ingresa en el campo Body del POSTMAN</t>
-  </si>
-  <si>
-    <t>1. Tener configurados los Metodos HTTP, entre ellos el PUT                2. Tener descargado POSTMAN                    3. Tener la URL de la tienda de mascotas funcionando                      4. Tener toda la información que se ingresa en el campo Body del POSTMAN</t>
-  </si>
-  <si>
-    <t>1. Tener configurados los Metodos HTTP, entre ellos el PUT                2. Tener descargado POSTMAN                    3. Tener la URL de la tienda de mascotas funcionando                     4. Tener toda la información que se ingresa en el campo Body del POSTMAN</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1. Tener configurados los Metodos HTTP, entre ellos el GET                2. Tener descargado POSTMAN                    3. Tener la URL de la tienda de mascotas funcionando                  </t>
-  </si>
-  <si>
-    <t xml:space="preserve">1. Tener configurados los Metodos HTTP, entre ellos el GET                 2. Tener descargado POSTMAN                    3. Tener la URL de la tienda de mascotas funcionando                  </t>
-  </si>
-  <si>
-    <t xml:space="preserve">1. Tener configurados los Metodos HTTP, entre ellos el DELETE          2. Tener descargado POSTMAN                    3. Tener la URL de la tienda de mascotas funcionando                  </t>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">1. Id: </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">Número autogenerado </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">                  2.Categoría:                               id:</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">1fg (Incorrecto) </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">                                    name: </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color rgb="FF00B050"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t>Gatos(Correcto)</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">                           3. Name: </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color rgb="FF00B050"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t>Pelusa(Correcto)</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">              4. PhotoUrls: </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color rgb="FF00B050"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t>https://images.pexels.com/photos/45201/kitty-cat-kitten-pet-45201.jpeg?auto=compress&amp;cs=tinysrgb&amp;w=600</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF00B050"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">(Correcto)    </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">                               5.Tags:                                             id: </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color rgb="FF00B050"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t>1</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF00B050"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve"> (Correcto) </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">                                 name: </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color rgb="FF00B050"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t>Gato</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF00B050"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">  (Correcto)</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">                      6. status: </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color rgb="FF00B050"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t>available</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">1. Id: </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">Número autogenerado </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">                  2.Categoría:                                   id:</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color rgb="FF00B050"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t>1 (Correcto)</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">                                    name: </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">CXSD </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t>(Incorrecto)</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">                           3. Name: </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color rgb="FF00B050"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t>Pelusa</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF00B050"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t>(Correcto)</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">              4. PhotoUrls: </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color rgb="FF00B050"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t>https://images.pexels.com/photos/45201/kitty-cat-kitten-pet-45201.jpeg?auto=compress&amp;cs=tinysrgb&amp;w=600</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF00B050"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">(Correcto)   </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">                                5.Tags:                                            id: </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color rgb="FF00B050"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t>1</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF00B050"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve"> (Correcto)</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">                                  name: </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color rgb="FF00B050"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t>Gato</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF00B050"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">  (Correcto)  </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">                    6. status: </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color rgb="FF00B050"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t>available</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">1. Id: </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">Número autogenerado </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">                  2.Categoría:                                   id:</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color rgb="FF00B050"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t>1 (Correcto)</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">                                    name:</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF00B050"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve"> gatos </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color rgb="FF00B050"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t>(Correcto)</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF00B050"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">  </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">                          3. Name:</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t>2546</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t>(Incorrecto)</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">                        4. PhotoUrls: </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color rgb="FF00B050"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t>https://images.pexels.com/photos/45201/kitty-cat-kitten-pet-45201.jpeg?auto=compress&amp;cs=tinysrgb&amp;w=600</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF00B050"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">(Correcto)  </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">                                 5.Tags:                                            id: </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color rgb="FF00B050"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t>1</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF00B050"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve"> (Correcto)  </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">                                name: </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color rgb="FF00B050"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t>Gato</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF00B050"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">  (Correcto)</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">                      6. status: </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color rgb="FF00B050"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t>available</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">1. Id: </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">Número autogenerado </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">                  2.Categoría:                                    id:</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color rgb="FF00B050"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">1 (Correcto) </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">                                    name: </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF00B050"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">gatos </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color rgb="FF00B050"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t>(Correcto)</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF00B050"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">                           3. Name:</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color rgb="FF00B050"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t>Pelusa (Correcto)</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">     </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">                             4. PhotoUrls: </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color rgb="FF00B050"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t>https://images.pexels.com/photos/45201/kitty-cat-kitten-pet-45201.jpeg?auto=compress&amp;cs=tinysrgb&amp;w=600 (Correcto)</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">                                 5.Tags:                                            id:</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t>uhy</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t>(Incorrecto)</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">                                 name: </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color rgb="FF00B050"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t>Gato</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF00B050"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">  (Correcto)  </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">                    6. status: </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color rgb="FF00B050"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t>available</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">1. Id: </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">Número autogenerado </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">                  2.Categoría:                                   id:</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color rgb="FF00B050"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t>1 (Correcto)</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">                                    name: </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF00B050"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">gatos </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color rgb="FF00B050"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t>(Correcto)</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF00B050"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">                           3. Name:</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color rgb="FF00B050"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">Pelusa (Correcto)    </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">                             4. PhotoUrls: </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color rgb="FF00B050"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">https://images.pexels.com/photos/45201/kitty-cat-kitten-pet-45201.jpeg?auto=compress&amp;cs=tinysrgb&amp;w=600 (Correcto) </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF00B050"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">                                5.Tags:                                             id: </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color rgb="FF00B050"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t>1 (Correcto)</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">                                  name: </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t>2569</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">(Incorrecto) </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">                     6. status: </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color rgb="FF00B050"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t>available</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">1. Id: </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">Número autogenerado </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">                  2.Categoría:                                   id:</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color rgb="FF00B050"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">1 (Correcto) </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">                                    name: </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF00B050"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">gatos </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color rgb="FF00B050"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t>(Correcto)</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">                            3. Name:</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color rgb="FF00B050"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve"> Pelusa (Correcto)</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">     </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">                             4. PhotoUrls: </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color rgb="FF00B050"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t>https://images.pexels.com/photos/45201/kitty-cat-kitten-pet-45201.jpeg?auto=compress&amp;cs=tinysrgb&amp;w=600 (Correcto)</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">                                 5.Tags:                                            id: </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color rgb="FF00B050"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t>1 (Correcto)</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF00B050"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">                                 name: </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color rgb="FF00B050"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">gato (Correcto) </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">                        6. status: wsatr </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t>(Incorrecto)</t>
-    </r>
-  </si>
-  <si>
     <t>Mostrar un status code 200 con la siguiente respuesta:                                                              {                                                                 "code":0,                                             "type":"string"                               "message":"string"                                                                                                 }</t>
   </si>
   <si>
     <t>Mostrar un status code 400 con la siguiente respuesta: Pet not found</t>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">1. Id: </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">Número autogenerado </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">                  2.Categoría:                               id:</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">31(Incorrecto) </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">                                   name:</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color rgb="FF00B050"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t>Gatos(Correcto)</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">                           3. Name: </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color rgb="FF00B050"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t>Pelusa(Correcto)</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF00B050"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">   </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">           4. PhotoUrls: </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color rgb="FF00B050"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">https://images.pexels.com/photos/45201/kitty-cat-kitten-pet-45201.jpeg?auto=compress&amp;cs=tinysrgb&amp;w=600  </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF00B050"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">                                   5.Tags:</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">                                           id: </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color rgb="FF00B050"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t>1</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">   </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">                                         name: </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color rgb="FF00B050"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t>Gato</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF00B050"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">   </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">                                   6. status: </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color rgb="FF00B050"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t>available</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">1. Id: </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">Número autogenerado </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">                  2.Categoría:                               id:</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color rgb="FF00B050"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t>1(Correcto)</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">                                    name:</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t>Iguanas(Incorrecto)</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">                           3. Name: </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color rgb="FF00B050"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t>Pelusa(Correcto)</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF00B050"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">  </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">            4. PhotoUrls: </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color rgb="FF00B050"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t>https://images.pexels.com/photos/45201/kitty-cat-kitten-pet-45201.jpeg?auto=compress&amp;cs=tinysrgb&amp;w=600(Correcto)</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF00B050"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">   </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">                                 5.Tags:</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">                                             id: </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color rgb="FF00B050"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">1 (Correcto) </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">                                name: </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color rgb="FF00B050"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t>Gato</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF00B050"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color rgb="FF00B050"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve"> (Correcto) </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF00B050"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">                    6. status: </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color rgb="FF00B050"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t>available</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color rgb="FF00B050"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t>(Correcto)</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">1. Id: </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">Número autogenerado </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">                  2.Categoría:                               id:</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color rgb="FF00B050"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">1(Correcto) </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">                                    name:</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color rgb="FF00B050"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t>gatos(Correcto)</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF00B050"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">                          3. Name: </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t>25658(Incorrecto)</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">              4. PhotoUrls: </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color rgb="FF00B050"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t>https://images.pexels.com/photos/45201/kitty-cat-kitten-pet-45201.jpeg?auto=compress&amp;cs=tinysrgb&amp;w=600(Correcto)</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF00B050"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">                                   5.Tags:</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">                                            id: </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color rgb="FF00B050"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">1 (Correcto)  </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF00B050"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">                               name: </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color rgb="FF00B050"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t>Gato</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF00B050"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color rgb="FF00B050"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve"> (Correcto) </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF00B050"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">                    6. status: </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color rgb="FF00B050"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t>available (Correcto)</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">1. Id: </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">Número autogenerado </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">                  2.Categoría:                               id:</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color rgb="FF00B050"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t>1(Correcto)</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">                                    name:</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color rgb="FF00B050"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t>gatos(Correcto)</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">                           3. Name: </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color rgb="FF00B050"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t>Pelusa(Correcto)</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF00B050"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">   </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">           4. PhotoUrls: </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t>https://images.pexels.com/photos/45201/kitty-cat-kitten (Incorrecto)</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">                                    5.Tags:</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">                                           id: </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color rgb="FF00B050"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">1 (Correcto)  </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF00B050"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">   </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">                             name: </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color rgb="FF00B050"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t>Gato</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF00B050"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color rgb="FF00B050"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve"> (Correcto) </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">                     6. status: </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color rgb="FF00B050"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t>available (Correcto)</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">1. Id: </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">Número autogenerado </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">                  2.Categoría:                               id:</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color rgb="FF00B050"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">1(Correcto) </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">                                    name: </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color rgb="FF00B050"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">Gatos(Correcto) </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">                          3. Name: </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color rgb="FF00B050"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">Pelusa(Correcto) </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">             4. PhotoUrls: </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color rgb="FF00B050"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t>https://images.pexels.com/photos/45201/kitty-cat-kitten-pet-45201.jpeg?auto=compress&amp;cs=tinysrgb&amp;w=600</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF00B050"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t>(Correcto)</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">                                   5.Tags:                                            id: </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color rgb="FF00B050"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">1 (Correcto) </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">                                 name: </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color rgb="FF00B050"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t>Gato</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF00B050"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">  (Correcto) </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">                     6. status: </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color rgb="FF00B050"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t>available</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">1. Id: </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">Número autogenerado </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">                  2.Categoría:                                  id:</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color rgb="FF00B050"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t>1 (Correcto)</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">                                    name: </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF00B050"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">gatos </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color rgb="FF00B050"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t>(Correcto)</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">                            3. Name:</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color rgb="FF00B050"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t>Pelusa (Correcto)</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">                            4. PhotoUrls: </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">https://images.pexels.com(Incorrecto)  </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">                                      5.Tags:                                             id: </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color rgb="FF00B050"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t>1 (Correcto)</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">                                  name: </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color rgb="FF00B050"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t>Gato</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF00B050"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">  (Correcto) </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">                     6. status: </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color rgb="FF00B050"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t>available</t>
-    </r>
-  </si>
-  <si>
-    <t>Mostrar un status code 405 con la siguiente respuesta: Invalid input</t>
   </si>
   <si>
     <t>[Backend] Agregar una mascota en la tienda</t>
@@ -4295,21 +635,6 @@
   </si>
   <si>
     <t>[Backend] Actualizar información de una mascota</t>
-  </si>
-  <si>
-    <t>Actualizar una mascota en la tienda con datos del formulario mediante un método POST</t>
-  </si>
-  <si>
-    <t>1. Tener configurados los Metodos HTTP, entre ellos el POST              2. Tener descargado POSTMAN                    3. Tener la URL de la tienda de mascotas funcionando                     4. Tener toda la información que se ingresa en el campo Body del POSTMAN</t>
-  </si>
-  <si>
-    <t>1. Tener configurados los Metodos HTTP, entre ellos el POST               2. Tener descargado POSTMAN                    3. Tener la URL de la tienda de mascotas funcionando                     4. Tener toda la información que se ingresa en el campo Body del POSTMAN</t>
-  </si>
-  <si>
-    <t>1. Tener configurados los Metodos HTTP, entre ellos el PUT               2. Tener descargado POSTMAN                    3. Tener la URL de la tienda de mascotas funcionando                  4. Tener toda la información que se ingresa en el campo Body del POSTMAN</t>
-  </si>
-  <si>
-    <t>1. Ingresar a POSTMAN                        2. Abrir una solicitud POST e ingresar una dirección con la siguiente estructura en el campo POST: URL/pet/{petID}                                   3. En el body opción raw configurar la estructura de envío con los datos de entrada en formato JSON                              4. Presionar el botón SEND.</t>
   </si>
   <si>
     <t>[Backend] Actualizar una mascota en la tienda con datos de formulario</t>
@@ -4338,12 +663,2206 @@
   <si>
     <t>Casos de prueba</t>
   </si>
+  <si>
+    <t>{
+  "id": 6,
+  "category": {
+    "id": 1,
+    "name": "firulais"
+  },
+  "name": "firulais",
+  "photoUrls": [
+    "string"
+  ],
+  "tags": [
+    {
+      "id": 1,
+      "name": "firulais"
+    }
+  ],
+  "status": "available"
+}</t>
+  </si>
+  <si>
+    <t>1. Tener descargado POSTMAN            2. Tener configurado el Metodo HTTP de POST                           3. Tener el PATH de la API funcionando                                4. Tener toda la información que se va a ingresar en el campo Body-raw de POSTMAN</t>
+  </si>
+  <si>
+    <t>1. Ingresar a POSTMAN                        2. Abrir una solicitud POST e ingresar una dirección con la siguiente estructura en el campo del PATH: URL/pet                                            3. En el body opción raw configurar la estructura de envío con los datos de entrada en formato JSON                              4. Presionar el botón SEND.</t>
+  </si>
+  <si>
+    <t>Mostrar un status code 201 con la información de la mascota creada de la siguiente manera:   {
+    "id": 6,
+    "category": {
+        "id": 1,
+        "name": "firulais"
+    },
+    "name": "firulais",
+    "photoUrls": [
+        "string"
+    ],
+    "tags": [
+        {
+            "id": 1,
+            "name": "firulais"
+        }
+    ],
+    "status": "available"
+}</t>
+  </si>
+  <si>
+    <t>1. Tener descargado POSTMAN            2. Tener configurado el Metodo HTTP de POST                           3. Tener el PATH de la API funcionando                                4. Tener la información que se va a ingresar en el campo Body-raw de POSTMAN</t>
+  </si>
+  <si>
+    <t>Adicionar una nueva mascota para que se publique en la tienda mediante un método POST con un status no valido</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF00B050"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">{
+  "id": 6,
+  "category": {
+    "id": 1,
+    "name": "firulais"
+  },
+  "name": "firulais",
+  "photoUrls": [
+    "string"
+  ],
+  "tags": [
+    {
+      "id": 1,
+      "name": "firulais"
+    }
+  ],
+  </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>"status": "hola mundo"</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF00B050"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">
+}</t>
+    </r>
+  </si>
+  <si>
+    <t>Adicionar una nueva mascota para que se publique en la tienda mediante un método POST con un id con formato String</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF00B050"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">{
+  </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>"id": "hola mundo",</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF00B050"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">
+  "category": {
+    "id": 1,
+    "name": "firulais"
+  },
+  "name": "firulais",
+  "photoUrls": [
+    "string"
+  ],
+  "tags": [
+    {
+      "id": 1,
+      "name": "firulais"
+    }
+  ],
+  "status": "available"
+}</t>
+    </r>
+  </si>
+  <si>
+    <t xml:space="preserve">Mostrar un status code 405 con el siguiente mensaje: Invalid Put. (La respuesta generada en el Postman es de Status 500 error del servidor)    </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Mostrar un status code 405 con el siguiente mensaje: Invalid Input.(La respuesta generada en el Postman es de Status 200 Ok)                        </t>
+  </si>
+  <si>
+    <t>Adicionar una nueva mascota para que se publique en la tienda mediante un método POST con el id de la categoría como String</t>
+  </si>
+  <si>
+    <t>Adicionar una nueva mascota para que se publique en la tienda mediante un método POST con el name de la categoría como número entero</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF00B050"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">{
+  "id": 1,
+  "category": {
+   </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> "id": "categoriaUno"</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF00B050"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>,
+    "name": "firulais"
+  },
+  "name": "firulais",
+  "photoUrls": [
+    "string"
+  ],
+  "tags": [
+    {
+      "id": 1,
+      "name": "firulais"
+    }
+  ],
+  "status": "available"
+}</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF00B050"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">{
+  "id": 1,
+  "category": {
+    "id": 1,
+    </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>"name": 2554</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF00B050"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">
+  },
+  "name": "firulais",
+  "photoUrls": [
+    "string"
+  ],
+  "tags": [
+    {
+      "id": 1,
+      "name": "firulais"
+    }
+  ],
+  "status": "available"
+}</t>
+    </r>
+  </si>
+  <si>
+    <t xml:space="preserve">Mostrar un status code 405 con el siguiente mensaje: Invalid Put. (La respuesta generada en el Postman es de Status 200 Ok)    </t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF00B050"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">{
+  "id": 1,
+  "category": {
+    "id": 1,
+    "name": "firulais"
+  },
+ </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> "name": 3698,</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF00B050"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">
+  "photoUrls": [
+    "string"
+  ],
+  "tags": [
+    {
+      "id": 1,
+      "name": "firulais"
+    }
+  ],
+  "status": "available"
+}</t>
+    </r>
+  </si>
+  <si>
+    <t>Adicionar una nueva mascota para que se publique en la tienda mediante un método POST con el name de la mascota como número entero</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF00B050"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">{
+  "id": 1,
+  "category": {
+    "id": 1,
+    "name": "firulais"
+  },
+ </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF00B050"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">"name": "firulais",
+  </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>"photoUrls": [
+    256589
+  ],</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF00B050"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">
+  "tags": [
+    {
+      "id": 1,
+      "name": "firulais"
+    }
+  ],
+  "status": "available"
+}</t>
+    </r>
+  </si>
+  <si>
+    <t>Adicionar una nueva mascota para que se publique en la tienda mediante un método POST con el photoUrls de la mascota como número entero</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF00B050"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">{
+  "id": 1,
+  "category": {
+    "id": 1,
+    "name": "firulais"
+  },
+ </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF00B050"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">"name": "firulais",
+  "photoUrls": [
+    "String"
+  ],
+  "tags": [
+    {
+     </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> "id": "Hola"</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF00B050"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>,
+      "name": "firulais"
+    }
+  ],
+  "status": "available"
+}</t>
+    </r>
+  </si>
+  <si>
+    <t>Adicionar una nueva mascota para que se publique en la tienda mediante un método POST con el id del tags de la mascota como un String.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Mostrar un status code 405 con el siguiente mensaje: Invalid Put. (La respuesta generada en el Postman es de Status 500 Error del servidor)    </t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF00B050"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">{
+  "id": 1,
+  "category": {
+    "id": 1,
+    "name": "firulais"
+  },
+ </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF00B050"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">"name": "firulais",
+  "photoUrls": [
+    "String"
+  ],
+  "tags": [
+    {
+     </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF00B050"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">"id": 1,
+      </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>"name": 5689</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF00B050"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">
+    }
+  ],
+  "status": "available"
+}</t>
+    </r>
+  </si>
+  <si>
+    <t>Adicionar una nueva mascota para que se publique en la tienda mediante un método POST con el name del tags de la mascota como un número.</t>
+  </si>
+  <si>
+    <t>1. Tener descargado POSTMAN            2. Tener configurado el Metodo HTTP de PUT                               3. Tener el PATH de la API funcionando                                4. Tener la información que se va a ingresar en el campo Body-raw de POSTMAN</t>
+  </si>
+  <si>
+    <t>{
+  "id": 0,
+  "category": {
+    "id": 0,
+    "name": "string"
+  },
+  "name": "doggie",
+  "photoUrls": [
+    "string"
+  ],
+  "tags": [
+    {
+      "id": 0,
+      "name": "string"
+    }
+  ],
+  "status": "available"
+}</t>
+  </si>
+  <si>
+    <t>Actualizar la información de una mascota para que se publique en la tienda con el id de la mascota de tipo String</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">{
+  </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>"id": "Hola mundo",</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF00B050"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">
+  "category": {
+    "id": 0,
+    "name": "string"
+  },
+  "name": "doggie",
+  "photoUrls": [
+    "string"
+  ],
+  "tags": [
+    {
+      "id": 0,
+      "name": "string"
+    }
+  ],
+  "status": "available"
+}</t>
+    </r>
+  </si>
+  <si>
+    <t>{
+  }</t>
+  </si>
+  <si>
+    <t>Adicionar una nueva mascota con sólo un objeto vacío mediante un método POST</t>
+  </si>
+  <si>
+    <t>Mostrar un status code 405 con la siguiente información: Invalid Input (La respuesta generada en el Postman no debería decir Status 200 porque no hay datos)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">	
+Mostrar un Status code 400 con el siguiente mensaje: Invalid ID supplied                              </t>
+  </si>
+  <si>
+    <t>Actualizar la información de una mascota para que se publique en la tienda con el id de la categoría de la mascota de tipo String</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">{
+  "id": 1,
+  "category": {
+   </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> "id": "nombre",</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF00B050"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">
+    "name": "string"
+  },
+  "name": "doggie",
+  "photoUrls": [
+    "string"
+  ],
+  "tags": [
+    {
+      "id": 0,
+      "name": "string"
+    }
+  ],
+  "status": "available"
+}</t>
+    </r>
+  </si>
+  <si>
+    <t xml:space="preserve">	
+Mostrar un Status code 400 con el siguiente mensaje: Invalid ID supplied (El postman nos muestra un Status Code 500 Error del servidor)                         </t>
+  </si>
+  <si>
+    <t>Actualizar la información de una mascota para que se publique en la tienda con el nombre de la categoría de la mascota de tipo entero.</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">{
+  "id": 1,
+  "category": {
+   </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF00B050"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">"id": 1,
+    </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>"name": 2698</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF00B050"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">
+  },
+  "name": "doggie",
+  "photoUrls": [
+    "string"
+  ],
+  "tags": [
+    {
+      "id": 0,
+      "name": "string"
+    }
+  ],
+  "status": "available"
+}</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">{
+  "id": 1,
+  "category": {
+   </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF00B050"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">"id": 1,
+    "name": "String"
+  },
+  </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>"name": 28885,</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF00B050"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">
+  "photoUrls": [
+    "string"
+  ],
+  "tags": [
+    {
+      "id": 0,
+      "name": "string"
+    }
+  ],
+  "status": "available"
+}</t>
+    </r>
+  </si>
+  <si>
+    <t>Actualizar la información de una mascota para que se publique en la tienda con el nombre de la mascota de tipo entero.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">	
+Mostrar un Status code 405 con el siguiente mensaje: Validation Exception (El postman nos muestra un Status Code 200 Ok:                          {
+    "id": 1,
+    "category": {
+        "id": 1,
+        "name": "String"
+    },
+    "name": "28885",
+    "photoUrls": [
+        "string"
+    ],
+    "tags": [
+        {
+            "id": 0,
+            "name": "string"
+        }
+    ],
+    "status": "available"
+})                         </t>
+  </si>
+  <si>
+    <t xml:space="preserve">	
+Mostrar un Status code 405 con el siguiente mensaje: Validation Exception (El postman nos muestra un Status Code 200 Ok: {
+    "id": 1,
+    "category": {
+        "id": 1,
+        "name": "2698"
+    },
+    "name": "doggie",
+    "photoUrls": [
+        "string"
+    ],
+    "tags": [
+        {
+            "id": 0,
+            "name": "string"
+        }
+    ],
+    "status": "available"
+})                          </t>
+  </si>
+  <si>
+    <t>Actualizar la información de una mascota para que se publique en la tienda con el photoUrls de la mascota de tipo entero.</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">{
+  "id": 1,
+  "category": {
+   </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF00B050"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">"id": 1,
+    "name": "String"
+  },
+  "name": "String",
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">  "photoUrls": [
+    12345
+  ]</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF00B050"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>,
+  "tags": [
+    {
+      "id": 0,
+      "name": "string"
+    }
+  ],
+  "status": "available"
+}</t>
+    </r>
+  </si>
+  <si>
+    <t xml:space="preserve">	
+Mostrar un Status code 405 con el siguiente mensaje: Validation Exception (El postman nos muestra un Status Code 200 Ok:                          {
+    "id": 1,
+    "category": {
+        "id": 1,
+        "name": "String"
+    },
+    "name": "String",
+    "photoUrls": [
+        "12345"
+    ],
+    "tags": [
+        {
+            "id": 0,
+            "name": "string"
+        }
+    ],
+    "status": "available"
+})                         </t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">{
+  "id": 1,
+  "category": {
+   </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF00B050"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">"id": 1,
+    "name": "String"
+  },
+  "name": "String",
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">  </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF00B050"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">"photoUrls": [
+    "String"
+  ],
+  "tags": [
+    {
+      </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>"id": "numeroTag",</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF00B050"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">
+      "name": "string"
+    }
+  ],
+  "status": "available"
+}</t>
+    </r>
+  </si>
+  <si>
+    <t>Actualizar la información de una mascota para que se publique en la tienda con el id del tag de la mascota de tipo String.</t>
+  </si>
+  <si>
+    <t>Actualizar la información de una mascota para que se publique en la tienda con el name del tag de la mascota de tipo entero.</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">{
+  "id": 1,
+  "category": {
+   </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF00B050"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">"id": 1,
+    "name": "String"
+  },
+  "name": "String",
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">  </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF00B050"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">"photoUrls": [
+    "String"
+  ],
+  "tags": [
+    {
+      "id": 1,
+      </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>"name": 69874</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF00B050"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">
+    }
+  ],
+  "status": "available"
+}</t>
+    </r>
+  </si>
+  <si>
+    <t>Mostrar un status code 405 con la siguiente respuesta:Invalid input. (El postman nos arroja un Status 200 con la siguiente info:{
+    "id": 1,
+    "category": {
+        "id": 1,
+        "name": "String"
+    },
+    "name": "String",
+    "photoUrls": [
+        "String"
+    ],
+    "tags": [
+        {
+            "id": 1,
+            "name": "69874"
+        }
+    ],
+    "status": "available"
+})</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">{
+  "id": 1,
+  "category": {
+   </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF00B050"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">"id": 1,
+    "name": "String"
+  },
+  "name": "String",
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">  </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF00B050"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">"photoUrls": [
+    "String"
+  ],
+  "tags": [
+    {
+      "id": 1,
+      "name": "String"
+    }
+  ],
+ </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> "status": 25694</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF00B050"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">
+}</t>
+    </r>
+  </si>
+  <si>
+    <t>Actualizar la información de una mascota para que se publique en la tienda con el status de la  mascota de tipo entero.</t>
+  </si>
+  <si>
+    <t>Mostrar un status code 405 con la siguiente respuesta:Invalid input. (El postman nos arroja un Status 200 con la siguiente info:{
+    "id": 1,
+    "category": {
+        "id": 1,
+        "name": "String"
+    },
+    "name": "String",
+    "photoUrls": [
+        "String"
+    ],
+    "tags": [
+        {
+            "id": 1,
+            "name": "String"
+        }
+    ],
+    "status": "25694"
+})</t>
+  </si>
+  <si>
+    <t>Actualizar la información de una mascota para que se publique en la tienda poniendo un objeto vacío en el body.</t>
+  </si>
+  <si>
+    <t>{
+}</t>
+  </si>
+  <si>
+    <t>Mostrar un status code 405 con la siguiente respuesta:Invalid input. (El postman nos arroja un Status 200 con la siguiente info:{
+    "id": 9223372036854048942,
+    "photoUrls": [],
+    "tags": []
+})</t>
+  </si>
+  <si>
+    <t>Actualizar la información de una mascota para que se publique en la tienda dejando vacío en el body.</t>
+  </si>
+  <si>
+    <t>Mostrar un status code 405 con la siguiente respuesta:Invalid input. (El postman nos arroja un Status 415 con la siguiente info:{
+    "code": 415,
+    "type": "unknown",
+    "message": "com.sun.jersey.api.MessageException: A message body reader for Java class io.swagger.sample.model.Pet, and Java type class io.swagger.sample.model.Pet, and MIME media type application/octet-stream was not found.\nThe registered message body readers compatible with the MIME media type are:\n*/* -&gt;\n  com.sun.jersey.core.impl.provider.entity.FormProvider\n  com.sun.jersey.core.impl.provider.entity.StringProvider\n  com.sun.jersey.core.impl.provider.entity.ByteArrayProvider\n  com.sun.jersey.core.impl.provider.entity.FileProvider\n  com.sun.jersey.core.impl.provider.entity.InputStreamProvider\n  com.sun.jersey.core.impl.provider.entity.DataSourceProvider\n  com.sun.jersey.core.impl.provider.entity.XMLJAXBElementProvider$General\n  com.sun.jersey.core.impl.provider.entity.ReaderProvider\n  com.sun.jersey.core.impl.provider.entity.DocumentProvider\n  com.sun.jersey.core.impl.provider.entity.SourceProvider$StreamSourceReader\n  com.sun.jersey.core.impl.provider.entity.SourceProvider$SAXSourceReader\n  com.sun.jersey.core.impl.provider.entity.SourceProvider$DOMSourceReader\n  com.sun.jersey.json.impl.provider.entity.JSONJAXBElementProvider$General\n  com.sun.jersey.json.impl.provider.entity.JSONArrayProvider$General\n  com.sun.jersey.json.impl.provider.entity.JSONObjectProvider$General\n  com.fasterxml.jackson.jaxrs.json.JacksonJsonProvider\n  com.sun.jersey.core.impl.provider.entity.XMLRootElementProvider$General\n  com.sun.jersey.core.impl.provider.entity.XMLListElementProvider$General\n  com.sun.jersey.core.impl.provider.entity.XMLRootObjectProvider$General\n  com.sun.jersey.core.impl.provider.entity.EntityHolderReader\n  com.sun.jersey.json.impl.provider.entity.JSONRootElementProvider$General\n  com.sun.jersey.json.impl.provider.entity.JSONListElementProvider$General}</t>
+  </si>
+  <si>
+    <t>Actualizar la información de una mascota para que se publique en la tienda ingresando números en vez de un objeto en el body.</t>
+  </si>
+  <si>
+    <t>Mostrar un status code 405 con la siguiente respuesta:Invalid input. (El postman nos arroja un Status 500 con la siguiente info:{
+    "code": 500,
+    "type": "unknown",
+    "message": "something bad happened"
+})</t>
+  </si>
+  <si>
+    <t>1. Tener descargado POSTMAN            2. Tener configurado el Metodo HTTP de POST                               3. Tener el PATH de la API funcionando                                4. Tener la información que se va a ingresar en el campo Body-formData de POSTMAN</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">1. PetID del path: </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF00B050"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>1</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF00B050"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">(Correcto)  </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">                           2. Name del formData: </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF00B050"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>Gato</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF00B050"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF00B050"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>(Correcto)</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">                                   3. Status del formData: </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF00B050"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">Available (Correcto) </t>
+    </r>
+  </si>
+  <si>
+    <t>1. Ingresar a POSTMAN                        2. Abrir una solicitud POST e ingresar una dirección con la siguiente estructura en el campo POST: URL/pet/{petID}                                   3. En el body opción formData escribir el Name y el Status.                              4. Presionar el botón SEND.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Mostrar un status code 200 con la información de la mascota actualizada. (El postman nos arroja una Status 415 Unsupported Media Type con el mensaje de:                                            &lt;?xml version="1.0" encoding="UTF-8" standalone="yes"?&gt;
+&lt;apiResponse&gt;
+    &lt;type&gt;unknown&lt;/type&gt;
+&lt;/apiResponse&gt;)               </t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">1. PetID del path: </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">f (Incorrecto)  </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">                           2. Name del formData: </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF00B050"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>Gato</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF00B050"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF00B050"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>(Correcto)</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">                                   3. Status del formData: </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF00B050"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">Available (Correcto) </t>
+    </r>
+  </si>
+  <si>
+    <t xml:space="preserve">Mostrar un status code 405 con el siguiente mensaje: Invalid Input. (El postman nos arroja una Status 415 Unsupported Media Type con el mensaje de:                                            &lt;?xml version="1.0" encoding="UTF-8" standalone="yes"?&gt;
+&lt;apiResponse&gt;
+    &lt;type&gt;unknown&lt;/type&gt;
+&lt;/apiResponse&gt;)               </t>
+  </si>
+  <si>
+    <r>
+      <t>1. PetID del path</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF00B050"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>: 1 (Correcto)</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">  </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">                           2. Name del formData: </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>SFHR (Incorrecto)</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">                                  3. Status del formData: </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF00B050"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">Available (Correcto) </t>
+    </r>
+  </si>
+  <si>
+    <t>Actualizar una mascota en la tienda mediante el metodo POST ingresando el PetId correcto en el path y el Name y Status correctos en el formData</t>
+  </si>
+  <si>
+    <r>
+      <t>1. PetID del path</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF00B050"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>: 1 (Correcto)</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">  </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">                           2. Name del formData: </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF00B050"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">Gato (Correcto) </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">                                      3. Status del formData: </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">123456 (Incorrecto) </t>
+    </r>
+  </si>
+  <si>
+    <t>Actualizar una mascota en la tienda mediante el metodo POST ingresando el PetId incorrecto en el path y el Name y Status correctos en el formData</t>
+  </si>
+  <si>
+    <t>Actualizar una mascota en la tienda mediante el metodo POST ingresando el PetId correcto en el path, el Name incorrecto y el Status correcto en el formData</t>
+  </si>
+  <si>
+    <t>Actualizar una mascota en la tienda mediante el metodo POST ingresando el PetId correcto en el path, el Name correcto y el Status incorrecto en el formData</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Actualizar una mascota en la tienda mediante el metodo POST ingresando el PetId correcto en el path y el Name y el Status correctos en la opción de Params </t>
+  </si>
+  <si>
+    <r>
+      <t>1. PetID del path</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF00B050"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>: 1 (Correcto)</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">  </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">                           2. Name del formData: </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF00B050"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">Gato (Correcto) </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">                                      3. Status del formData: </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF00B050"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">Available (Correcto) </t>
+    </r>
+  </si>
+  <si>
+    <t>1. Ingresar a POSTMAN                        2. Abrir una solicitud POST e ingresar una dirección con la siguiente estructura en el campo POST: URL/pet/{petID}                                   3. En el body opción Params escribir el Name y el Status.                              4. Presionar el botón SEND.</t>
+  </si>
+  <si>
+    <t>1. Tener descargado POSTMAN            2. Tener configurado el Metodo HTTP de POST                               3. Tener el PATH de la API funcionando                                4. Tener la información que se va a ingresar en el campo de Params de POSTMAN</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Mostrar un status code 201. (El postman nos arroja un status 200 con el mensaje ok)               </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Actualizar una mascota en la tienda mediante el metodo POST ingresando el PetId incorrecto en el path y el Name y el Status correctos en la opción de Params </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Mostrar un status code 405 con el mensaje de Invalid Input. (El postman nos arroja un status 404 con la siguiente info: {
+    "code": 404,
+    "type": "unknown",
+    "message": "java.lang.NumberFormatException: For input string: \"f\""
+})               </t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Nota:</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> No aparecen varios ID porque las mascotas están ocultas</t>
+    </r>
+  </si>
+  <si>
+    <t>CP_Add30</t>
+  </si>
+  <si>
+    <t>CP_Add31</t>
+  </si>
+  <si>
+    <t>CP_Add32</t>
+  </si>
+  <si>
+    <r>
+      <t>1. PetID del path</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF00B050"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>:</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> f (Incorrecto)  </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">                           2. Name del formData: </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF00B050"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">Gato (Correcto) </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">                                      3. Status del formData: </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF00B050"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">Available (Correcto) </t>
+    </r>
+  </si>
+  <si>
+    <t>CP_Add33</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Actualizar una mascota en la tienda mediante el metodo POST ingresando el PetId correcto en el path, el Name incorrecto y el Status correcto en la opción de Params </t>
+  </si>
+  <si>
+    <r>
+      <t>1. PetID del path</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF00B050"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>:</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF00B050"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">1 (Correcto) </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">                           2. Name del formData: </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">111 (Incorrecto) </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">                                      3. Status del formData: </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF00B050"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">Available (Correcto) </t>
+    </r>
+  </si>
+  <si>
+    <t xml:space="preserve">Mostrar un status code 405 con el mensaje de Invalid Input. (El postman nos arroja un status 200 Ok)               </t>
+  </si>
+  <si>
+    <t>CP_Add34</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Actualizar una mascota en la tienda mediante el metodo POST ingresando el PetId correcto en el path, el Name correcto y el Status incorrecto en la opción de Params </t>
+  </si>
+  <si>
+    <r>
+      <t>1. PetID del path</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF00B050"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>:</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF00B050"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">1 (Correcto) </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">                           2. Name del formData: </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF00B050"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">Gato (Correcto) </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">                                      3. Status del formData: </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">12345 (Incorrecto) </t>
+    </r>
+  </si>
+  <si>
+    <t>CP_Add35</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Actualizar una mascota en la tienda mediante el metodo POST dejando el PetId vacio en el path, el Name vacio y el Status vacio en la opción de Params </t>
+  </si>
+  <si>
+    <r>
+      <t>1. PetID del path</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF00B050"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>:</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF00B050"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> 1 (Correcto)   </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">                         2. Name del formData: </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">(Incorrecto) </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">                                      3. Status del formData: </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> (Incorrecto) </t>
+    </r>
+  </si>
+  <si>
+    <t xml:space="preserve">Mostrar un status code 405 con el mensaje de Invalid Input. (El postman nos arroja un status 404 Not Found)               </t>
+  </si>
+  <si>
+    <t>CP_Add36</t>
+  </si>
+  <si>
+    <t>CP_Add37</t>
+  </si>
+  <si>
+    <t>CP_Add38</t>
+  </si>
+  <si>
+    <t>CP_Add39</t>
+  </si>
+  <si>
+    <t>CP_Add40</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Eliminar mascotas de la tienda para depurar la información ingresando un id correcto en el path y un api_key correcto tipo string en el header </t>
+  </si>
+  <si>
+    <t>1. Tener descargado POSTMAN            2. Tener configurado el Metodo HTTP de DELETE                               3. Tener el PATH de la API funcionando                                4. Tener la información que se va a ingresar en el campo de Headers en el POSTMAN</t>
+  </si>
+  <si>
+    <r>
+      <t>1. PATH: {{URL}}/pet/</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF00B050"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>1</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF00B050"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>(Correcto)</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">     2. Headers: Api_key: "pet 1" </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF00B050"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">(Correcto)       </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">  </t>
+    </r>
+  </si>
+  <si>
+    <t xml:space="preserve">Mostrar un status code 200 con el mensaje: Eliminando Mascota. (El postman nos arroja un status 200 con la siguiente info: {
+    "code": 200,
+    "type": "unknown",
+    "message": "1"
+})                             </t>
+  </si>
+  <si>
+    <t>CP_Add41</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Eliminar mascotas de la tienda para depurar la información ingresando un id correcto en el path y un api_key incorrecto tipo entero en el header </t>
+  </si>
+  <si>
+    <r>
+      <t>1. PATH: {{URL}}/pet/</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF00B050"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>fg (Incorrecto)</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF00B050"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">    2. Headers: Api_key: </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">22256 (Incorrecto) </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF00B050"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">      </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">  </t>
+    </r>
+  </si>
+  <si>
+    <t xml:space="preserve">Mostrar un status code 404 con el mensaje: 
+Pet not Found. (El postman nos arroja un status 200 ok con la siguiente info: {
+    "code": 200,
+    "type": "unknown",
+    "message": "1"
+})                             </t>
+  </si>
+  <si>
+    <t>CP_Add42</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Eliminar mascotas de la tienda para depurar la información ingresando un id correcto en el path y no ingresar un api_key en el header </t>
+  </si>
+  <si>
+    <r>
+      <t>1. URL: url/pet/1</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF00B050"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>(Correcto)</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">                   2. Headers: " " </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>(Incorrecto)</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">   </t>
+    </r>
+  </si>
+  <si>
+    <t>CP_Add43</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Eliminar mascotas de la tienda para depurar la información no ingresando un id en el path e ingresando un api_key en el header </t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">1. URL: url/pet/  </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">(Incorrecto)  </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">                        2. Headers: Api_key: "pet 1" </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF00B050"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">(Correcto)  </t>
+    </r>
+  </si>
+  <si>
+    <t xml:space="preserve">Mostrar un status code 400 con el mensaje: 
+Invalid ID supplied. (El postman nos arroja un status 405 Method Not Allow con la siguiente info:                                                                &lt;?xml version="1.0" encoding="UTF-8" standalone="yes"?&gt;
+&lt;apiResponse&gt;
+    &lt;type&gt;unknown&lt;/type&gt;
+&lt;/apiResponse&gt;)                             </t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="16" x14ac:knownFonts="1">
+  <fonts count="15" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
       <color rgb="FF000000"/>
@@ -4387,11 +2906,6 @@
       <family val="2"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Arial"/>
-    </font>
-    <font>
       <b/>
       <sz val="11"/>
       <color rgb="FFFF0000"/>
@@ -4408,17 +2922,6 @@
     <font>
       <sz val="11"/>
       <color rgb="FFFF0000"/>
-      <name val="Arial"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <name val="Arial"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <sz val="11"/>
       <name val="Arial"/>
       <family val="2"/>
     </font>
@@ -4441,8 +2944,22 @@
       <color theme="0"/>
       <name val="Poppins"/>
     </font>
+    <font>
+      <sz val="8"/>
+      <name val="Arial"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="10"/>
+      <color rgb="FF000000"/>
+      <name val="Arial"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="4">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -4458,6 +2975,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.79998168889431442"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -4530,7 +3053,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="23">
+  <cellXfs count="31">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -4554,45 +3077,69 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="12" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -4654,6 +3201,84 @@
         <a:xfrm>
           <a:off x="6360583" y="719665"/>
           <a:ext cx="899584" cy="847203"/>
+        </a:xfrm>
+        <a:prstGeom prst="roundRect">
+          <a:avLst>
+            <a:gd name="adj" fmla="val 16667"/>
+          </a:avLst>
+        </a:prstGeom>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst>
+          <a:outerShdw blurRad="76200" dist="38100" dir="7800000" algn="tl" rotWithShape="0">
+            <a:srgbClr val="000000">
+              <a:alpha val="40000"/>
+            </a:srgbClr>
+          </a:outerShdw>
+        </a:effectLst>
+        <a:scene3d>
+          <a:camera prst="orthographicFront"/>
+          <a:lightRig rig="contrasting" dir="t">
+            <a:rot lat="0" lon="0" rev="4200000"/>
+          </a:lightRig>
+        </a:scene3d>
+        <a:sp3d prstMaterial="plastic">
+          <a:bevelT w="381000" h="114300" prst="relaxedInset"/>
+          <a:contourClr>
+            <a:srgbClr val="969696"/>
+          </a:contourClr>
+        </a:sp3d>
+        <a:extLst>
+          <a:ext uri="{53640926-AAD7-44D8-BBD7-CCE9431645EC}">
+            <a14:shadowObscured xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main"/>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>762000</xdr:colOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>179915</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>1661584</xdr:colOff>
+      <xdr:row>6</xdr:row>
+      <xdr:rowOff>32285</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="3" name="Imagen 2" descr="Animales de grupo tienda de mascotas — Vector de stock">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{068F0519-C3DA-48FA-8B8C-C298EBA765AB}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill rotWithShape="1">
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1" cstate="print">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect b="6293"/>
+        <a:stretch/>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="6362700" y="713315"/>
+          <a:ext cx="899584" cy="852495"/>
         </a:xfrm>
         <a:prstGeom prst="roundRect">
           <a:avLst>
@@ -4896,10 +3521,10 @@
     <outlinePr summaryBelow="0" summaryRight="0"/>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:AC1007"/>
+  <dimension ref="A1:AC1018"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="G5" sqref="G5"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A35" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <selection activeCell="A47" sqref="A47:XFD48"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="12.7109375" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -4915,33 +3540,37 @@
   <sheetData>
     <row r="1" spans="1:29" ht="10.5" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="2" spans="1:29" ht="31.5" customHeight="1" x14ac:dyDescent="0.8">
-      <c r="F2" s="20" t="s">
-        <v>129</v>
+      <c r="F2" s="15" t="s">
+        <v>83</v>
       </c>
     </row>
     <row r="3" spans="1:29" ht="17.25" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="4" spans="1:29" ht="20.25" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="D4" s="17" t="s">
-        <v>125</v>
-      </c>
-      <c r="E4" s="18">
+      <c r="D4" s="12" t="s">
+        <v>79</v>
+      </c>
+      <c r="E4" s="13">
         <v>44764</v>
       </c>
+      <c r="G4" s="27" t="s">
+        <v>163</v>
+      </c>
+      <c r="H4" s="27"/>
     </row>
     <row r="5" spans="1:29" ht="21" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="D5" s="17" t="s">
-        <v>126</v>
-      </c>
-      <c r="E5" s="19" t="s">
-        <v>128</v>
+      <c r="D5" s="12" t="s">
+        <v>80</v>
+      </c>
+      <c r="E5" s="14" t="s">
+        <v>82</v>
       </c>
     </row>
     <row r="6" spans="1:29" ht="20.25" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="D6" s="17" t="s">
-        <v>127</v>
-      </c>
-      <c r="E6" s="19" t="s">
-        <v>83</v>
+      <c r="D6" s="12" t="s">
+        <v>81</v>
+      </c>
+      <c r="E6" s="14" t="s">
+        <v>63</v>
       </c>
     </row>
     <row r="8" spans="1:29" ht="19.5" x14ac:dyDescent="0.55000000000000004">
@@ -4977,7 +3606,7 @@
     </row>
     <row r="9" spans="1:29" ht="19.5" x14ac:dyDescent="0.55000000000000004">
       <c r="A9" s="4" t="s">
-        <v>26</v>
+        <v>17</v>
       </c>
       <c r="B9" s="4" t="s">
         <v>0</v>
@@ -5026,36 +3655,36 @@
       <c r="AB9" s="7"/>
       <c r="AC9" s="7"/>
     </row>
-    <row r="10" spans="1:29" ht="128.25" x14ac:dyDescent="0.2">
-      <c r="A10" s="9">
+    <row r="10" spans="1:29" ht="128.25" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A10" s="28">
         <v>1</v>
       </c>
-      <c r="B10" s="13" t="s">
-        <v>27</v>
-      </c>
-      <c r="C10" s="16" t="s">
-        <v>114</v>
-      </c>
-      <c r="D10" s="10" t="s">
-        <v>56</v>
-      </c>
-      <c r="E10" s="8" t="s">
-        <v>85</v>
-      </c>
-      <c r="F10" s="8" t="s">
+      <c r="B10" s="22" t="s">
+        <v>18</v>
+      </c>
+      <c r="C10" s="18" t="s">
+        <v>73</v>
+      </c>
+      <c r="D10" s="23" t="s">
+        <v>47</v>
+      </c>
+      <c r="E10" s="19" t="s">
+        <v>65</v>
+      </c>
+      <c r="F10" s="19" t="s">
         <v>9</v>
       </c>
-      <c r="G10" s="8" t="s">
-        <v>87</v>
-      </c>
-      <c r="H10" s="21" t="s">
-        <v>104</v>
-      </c>
-      <c r="I10" s="22" t="s">
-        <v>83</v>
-      </c>
-      <c r="J10" s="22" t="s">
-        <v>84</v>
+      <c r="G10" s="19" t="s">
+        <v>67</v>
+      </c>
+      <c r="H10" s="20" t="s">
+        <v>70</v>
+      </c>
+      <c r="I10" s="21" t="s">
+        <v>63</v>
+      </c>
+      <c r="J10" s="21" t="s">
+        <v>64</v>
       </c>
       <c r="K10" s="3"/>
       <c r="L10" s="3"/>
@@ -5077,36 +3706,36 @@
       <c r="AB10" s="3"/>
       <c r="AC10" s="3"/>
     </row>
-    <row r="11" spans="1:29" ht="128.25" x14ac:dyDescent="0.55000000000000004">
-      <c r="A11" s="9">
+    <row r="11" spans="1:29" ht="128.25" hidden="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A11" s="28">
         <v>2</v>
       </c>
-      <c r="B11" s="13" t="s">
-        <v>28</v>
-      </c>
-      <c r="C11" s="16" t="s">
-        <v>114</v>
-      </c>
-      <c r="D11" s="10" t="s">
-        <v>56</v>
-      </c>
-      <c r="E11" s="8" t="s">
-        <v>89</v>
-      </c>
-      <c r="F11" s="8" t="s">
+      <c r="B11" s="22" t="s">
+        <v>19</v>
+      </c>
+      <c r="C11" s="18" t="s">
+        <v>73</v>
+      </c>
+      <c r="D11" s="23" t="s">
+        <v>47</v>
+      </c>
+      <c r="E11" s="19" t="s">
+        <v>69</v>
+      </c>
+      <c r="F11" s="19" t="s">
         <v>10</v>
       </c>
-      <c r="G11" s="8" t="s">
-        <v>86</v>
-      </c>
-      <c r="H11" s="21" t="s">
-        <v>105</v>
-      </c>
-      <c r="I11" s="22" t="s">
-        <v>83</v>
-      </c>
-      <c r="J11" s="22" t="s">
-        <v>84</v>
+      <c r="G11" s="19" t="s">
+        <v>66</v>
+      </c>
+      <c r="H11" s="20" t="s">
+        <v>71</v>
+      </c>
+      <c r="I11" s="21" t="s">
+        <v>63</v>
+      </c>
+      <c r="J11" s="21" t="s">
+        <v>64</v>
       </c>
       <c r="K11" s="1"/>
       <c r="L11" s="1"/>
@@ -5128,36 +3757,36 @@
       <c r="AB11" s="1"/>
       <c r="AC11" s="1"/>
     </row>
-    <row r="12" spans="1:29" ht="128.25" x14ac:dyDescent="0.55000000000000004">
-      <c r="A12" s="9">
+    <row r="12" spans="1:29" ht="128.25" hidden="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A12" s="28">
         <v>3</v>
       </c>
-      <c r="B12" s="14" t="s">
-        <v>29</v>
-      </c>
-      <c r="C12" s="16" t="s">
-        <v>114</v>
-      </c>
-      <c r="D12" s="10" t="s">
-        <v>56</v>
-      </c>
-      <c r="E12" s="8" t="s">
-        <v>89</v>
-      </c>
-      <c r="F12" s="8" t="s">
+      <c r="B12" s="29" t="s">
+        <v>20</v>
+      </c>
+      <c r="C12" s="18" t="s">
+        <v>73</v>
+      </c>
+      <c r="D12" s="23" t="s">
+        <v>47</v>
+      </c>
+      <c r="E12" s="19" t="s">
+        <v>69</v>
+      </c>
+      <c r="F12" s="19" t="s">
         <v>11</v>
       </c>
-      <c r="G12" s="8" t="s">
-        <v>88</v>
-      </c>
-      <c r="H12" s="21" t="s">
-        <v>105</v>
-      </c>
-      <c r="I12" s="22" t="s">
-        <v>83</v>
-      </c>
-      <c r="J12" s="22" t="s">
-        <v>84</v>
+      <c r="G12" s="19" t="s">
+        <v>68</v>
+      </c>
+      <c r="H12" s="20" t="s">
+        <v>71</v>
+      </c>
+      <c r="I12" s="21" t="s">
+        <v>63</v>
+      </c>
+      <c r="J12" s="21" t="s">
+        <v>64</v>
       </c>
       <c r="K12" s="1"/>
       <c r="L12" s="1"/>
@@ -5179,36 +3808,36 @@
       <c r="AB12" s="1"/>
       <c r="AC12" s="1"/>
     </row>
-    <row r="13" spans="1:29" ht="128.25" x14ac:dyDescent="0.55000000000000004">
-      <c r="A13" s="9">
+    <row r="13" spans="1:29" ht="128.25" hidden="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A13" s="28">
         <v>4</v>
       </c>
-      <c r="B13" s="14" t="s">
-        <v>30</v>
-      </c>
-      <c r="C13" s="16" t="s">
-        <v>114</v>
-      </c>
-      <c r="D13" s="10" t="s">
-        <v>56</v>
-      </c>
-      <c r="E13" s="12" t="s">
-        <v>62</v>
-      </c>
-      <c r="F13" s="8" t="s">
+      <c r="B13" s="29" t="s">
+        <v>21</v>
+      </c>
+      <c r="C13" s="18" t="s">
+        <v>73</v>
+      </c>
+      <c r="D13" s="23" t="s">
+        <v>47</v>
+      </c>
+      <c r="E13" s="19" t="s">
+        <v>52</v>
+      </c>
+      <c r="F13" s="19" t="s">
         <v>12</v>
       </c>
-      <c r="G13" s="8" t="s">
-        <v>86</v>
-      </c>
-      <c r="H13" s="21" t="s">
-        <v>105</v>
-      </c>
-      <c r="I13" s="22" t="s">
-        <v>83</v>
-      </c>
-      <c r="J13" s="22" t="s">
-        <v>84</v>
+      <c r="G13" s="19" t="s">
+        <v>66</v>
+      </c>
+      <c r="H13" s="20" t="s">
+        <v>71</v>
+      </c>
+      <c r="I13" s="21" t="s">
+        <v>63</v>
+      </c>
+      <c r="J13" s="21" t="s">
+        <v>64</v>
       </c>
       <c r="K13" s="1"/>
       <c r="L13" s="1"/>
@@ -5230,36 +3859,36 @@
       <c r="AB13" s="1"/>
       <c r="AC13" s="1"/>
     </row>
-    <row r="14" spans="1:29" ht="208.5" x14ac:dyDescent="0.55000000000000004">
-      <c r="A14" s="9">
+    <row r="14" spans="1:29" ht="285" x14ac:dyDescent="0.55000000000000004">
+      <c r="A14" s="30">
         <v>5</v>
       </c>
-      <c r="B14" s="15" t="s">
-        <v>31</v>
-      </c>
-      <c r="C14" s="16" t="s">
-        <v>113</v>
-      </c>
-      <c r="D14" s="11" t="s">
-        <v>57</v>
+      <c r="B14" s="10" t="s">
+        <v>22</v>
+      </c>
+      <c r="C14" s="11" t="s">
+        <v>72</v>
+      </c>
+      <c r="D14" s="9" t="s">
+        <v>48</v>
       </c>
       <c r="E14" s="8" t="s">
+        <v>85</v>
+      </c>
+      <c r="F14" s="24" t="s">
+        <v>84</v>
+      </c>
+      <c r="G14" s="8" t="s">
+        <v>86</v>
+      </c>
+      <c r="H14" s="16" t="s">
+        <v>87</v>
+      </c>
+      <c r="I14" s="17" t="s">
         <v>63</v>
       </c>
-      <c r="F14" s="8" t="s">
-        <v>13</v>
-      </c>
-      <c r="G14" s="8" t="s">
-        <v>65</v>
-      </c>
-      <c r="H14" s="21" t="s">
-        <v>71</v>
-      </c>
-      <c r="I14" s="22" t="s">
-        <v>83</v>
-      </c>
-      <c r="J14" s="22" t="s">
-        <v>84</v>
+      <c r="J14" s="17" t="s">
+        <v>64</v>
       </c>
       <c r="K14" s="1"/>
       <c r="L14" s="1"/>
@@ -5281,36 +3910,36 @@
       <c r="AB14" s="1"/>
       <c r="AC14" s="1"/>
     </row>
-    <row r="15" spans="1:29" ht="208.5" x14ac:dyDescent="0.55000000000000004">
-      <c r="A15" s="9">
+    <row r="15" spans="1:29" ht="128.25" x14ac:dyDescent="0.55000000000000004">
+      <c r="A15" s="30">
         <v>6</v>
       </c>
-      <c r="B15" s="15" t="s">
-        <v>32</v>
-      </c>
-      <c r="C15" s="16" t="s">
+      <c r="B15" s="10" t="s">
+        <v>23</v>
+      </c>
+      <c r="C15" s="11" t="s">
+        <v>72</v>
+      </c>
+      <c r="D15" s="9" t="s">
+        <v>114</v>
+      </c>
+      <c r="E15" s="8" t="s">
+        <v>88</v>
+      </c>
+      <c r="F15" s="25" t="s">
         <v>113</v>
       </c>
-      <c r="D15" s="11" t="s">
-        <v>57</v>
-      </c>
-      <c r="E15" s="8" t="s">
+      <c r="G15" s="8" t="s">
+        <v>53</v>
+      </c>
+      <c r="H15" s="16" t="s">
+        <v>115</v>
+      </c>
+      <c r="I15" s="17" t="s">
         <v>63</v>
       </c>
-      <c r="F15" s="8" t="s">
-        <v>106</v>
-      </c>
-      <c r="G15" s="8" t="s">
-        <v>65</v>
-      </c>
-      <c r="H15" s="21" t="s">
-        <v>72</v>
-      </c>
-      <c r="I15" s="22" t="s">
-        <v>83</v>
-      </c>
-      <c r="J15" s="22" t="s">
-        <v>84</v>
+      <c r="J15" s="17" t="s">
+        <v>64</v>
       </c>
       <c r="K15" s="1"/>
       <c r="L15" s="1"/>
@@ -5332,36 +3961,36 @@
       <c r="AB15" s="1"/>
       <c r="AC15" s="1"/>
     </row>
-    <row r="16" spans="1:29" ht="208.5" x14ac:dyDescent="0.55000000000000004">
-      <c r="A16" s="9">
+    <row r="16" spans="1:29" ht="256.5" x14ac:dyDescent="0.55000000000000004">
+      <c r="A16" s="30">
         <v>7</v>
       </c>
-      <c r="B16" s="15" t="s">
-        <v>33</v>
-      </c>
-      <c r="C16" s="16" t="s">
-        <v>113</v>
-      </c>
-      <c r="D16" s="11" t="s">
-        <v>57</v>
+      <c r="B16" s="10" t="s">
+        <v>24</v>
+      </c>
+      <c r="C16" s="11" t="s">
+        <v>72</v>
+      </c>
+      <c r="D16" s="9" t="s">
+        <v>89</v>
       </c>
       <c r="E16" s="8" t="s">
+        <v>88</v>
+      </c>
+      <c r="F16" s="8" t="s">
+        <v>90</v>
+      </c>
+      <c r="G16" s="8" t="s">
+        <v>53</v>
+      </c>
+      <c r="H16" s="16" t="s">
+        <v>94</v>
+      </c>
+      <c r="I16" s="17" t="s">
         <v>63</v>
       </c>
-      <c r="F16" s="8" t="s">
-        <v>107</v>
-      </c>
-      <c r="G16" s="8" t="s">
-        <v>65</v>
-      </c>
-      <c r="H16" s="21" t="s">
-        <v>72</v>
-      </c>
-      <c r="I16" s="22" t="s">
-        <v>83</v>
-      </c>
-      <c r="J16" s="22" t="s">
-        <v>84</v>
+      <c r="J16" s="17" t="s">
+        <v>64</v>
       </c>
       <c r="K16" s="1"/>
       <c r="L16" s="1"/>
@@ -5383,36 +4012,36 @@
       <c r="AB16" s="1"/>
       <c r="AC16" s="1"/>
     </row>
-    <row r="17" spans="1:29" ht="208.5" x14ac:dyDescent="0.55000000000000004">
-      <c r="A17" s="9">
+    <row r="17" spans="1:29" ht="256.5" x14ac:dyDescent="0.55000000000000004">
+      <c r="A17" s="30">
         <v>8</v>
       </c>
-      <c r="B17" s="15" t="s">
-        <v>34</v>
-      </c>
-      <c r="C17" s="16" t="s">
-        <v>113</v>
-      </c>
-      <c r="D17" s="11" t="s">
-        <v>57</v>
+      <c r="B17" s="10" t="s">
+        <v>25</v>
+      </c>
+      <c r="C17" s="11" t="s">
+        <v>72</v>
+      </c>
+      <c r="D17" s="9" t="s">
+        <v>91</v>
       </c>
       <c r="E17" s="8" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="F17" s="8" t="s">
-        <v>108</v>
+        <v>92</v>
       </c>
       <c r="G17" s="8" t="s">
-        <v>65</v>
-      </c>
-      <c r="H17" s="21" t="s">
-        <v>72</v>
-      </c>
-      <c r="I17" s="22" t="s">
-        <v>83</v>
-      </c>
-      <c r="J17" s="22" t="s">
-        <v>84</v>
+        <v>53</v>
+      </c>
+      <c r="H17" s="16" t="s">
+        <v>93</v>
+      </c>
+      <c r="I17" s="17" t="s">
+        <v>63</v>
+      </c>
+      <c r="J17" s="17" t="s">
+        <v>64</v>
       </c>
       <c r="K17" s="1"/>
       <c r="L17" s="1"/>
@@ -5434,36 +4063,36 @@
       <c r="AB17" s="1"/>
       <c r="AC17" s="1"/>
     </row>
-    <row r="18" spans="1:29" ht="193.5" x14ac:dyDescent="0.55000000000000004">
-      <c r="A18" s="9">
+    <row r="18" spans="1:29" ht="256.5" x14ac:dyDescent="0.55000000000000004">
+      <c r="A18" s="30">
         <v>9</v>
       </c>
-      <c r="B18" s="15" t="s">
-        <v>35</v>
-      </c>
-      <c r="C18" s="16" t="s">
-        <v>113</v>
-      </c>
-      <c r="D18" s="11" t="s">
-        <v>57</v>
+      <c r="B18" s="10" t="s">
+        <v>26</v>
+      </c>
+      <c r="C18" s="11" t="s">
+        <v>72</v>
+      </c>
+      <c r="D18" s="9" t="s">
+        <v>95</v>
       </c>
       <c r="E18" s="8" t="s">
+        <v>88</v>
+      </c>
+      <c r="F18" s="8" t="s">
+        <v>97</v>
+      </c>
+      <c r="G18" s="8" t="s">
+        <v>53</v>
+      </c>
+      <c r="H18" s="16" t="s">
+        <v>93</v>
+      </c>
+      <c r="I18" s="17" t="s">
         <v>63</v>
       </c>
-      <c r="F18" s="8" t="s">
-        <v>109</v>
-      </c>
-      <c r="G18" s="8" t="s">
-        <v>65</v>
-      </c>
-      <c r="H18" s="21" t="s">
-        <v>72</v>
-      </c>
-      <c r="I18" s="22" t="s">
-        <v>83</v>
-      </c>
-      <c r="J18" s="22" t="s">
-        <v>84</v>
+      <c r="J18" s="17" t="s">
+        <v>64</v>
       </c>
       <c r="K18" s="1"/>
       <c r="L18" s="1"/>
@@ -5485,36 +4114,36 @@
       <c r="AB18" s="1"/>
       <c r="AC18" s="1"/>
     </row>
-    <row r="19" spans="1:29" ht="208.5" x14ac:dyDescent="0.55000000000000004">
-      <c r="A19" s="9">
+    <row r="19" spans="1:29" ht="256.5" x14ac:dyDescent="0.55000000000000004">
+      <c r="A19" s="30">
         <v>10</v>
       </c>
-      <c r="B19" s="15" t="s">
-        <v>36</v>
-      </c>
-      <c r="C19" s="16" t="s">
-        <v>113</v>
-      </c>
-      <c r="D19" s="11" t="s">
-        <v>57</v>
+      <c r="B19" s="10" t="s">
+        <v>27</v>
+      </c>
+      <c r="C19" s="11" t="s">
+        <v>72</v>
+      </c>
+      <c r="D19" s="9" t="s">
+        <v>96</v>
       </c>
       <c r="E19" s="8" t="s">
+        <v>88</v>
+      </c>
+      <c r="F19" s="8" t="s">
+        <v>98</v>
+      </c>
+      <c r="G19" s="8" t="s">
+        <v>53</v>
+      </c>
+      <c r="H19" s="16" t="s">
+        <v>99</v>
+      </c>
+      <c r="I19" s="17" t="s">
         <v>63</v>
       </c>
-      <c r="F19" s="8" t="s">
-        <v>14</v>
-      </c>
-      <c r="G19" s="8" t="s">
-        <v>65</v>
-      </c>
-      <c r="H19" s="21" t="s">
-        <v>72</v>
-      </c>
-      <c r="I19" s="22" t="s">
-        <v>83</v>
-      </c>
-      <c r="J19" s="22" t="s">
-        <v>84</v>
+      <c r="J19" s="17" t="s">
+        <v>64</v>
       </c>
       <c r="K19" s="1"/>
       <c r="L19" s="1"/>
@@ -5536,36 +4165,36 @@
       <c r="AB19" s="1"/>
       <c r="AC19" s="1"/>
     </row>
-    <row r="20" spans="1:29" ht="208.5" x14ac:dyDescent="0.55000000000000004">
-      <c r="A20" s="9">
+    <row r="20" spans="1:29" ht="256.5" x14ac:dyDescent="0.55000000000000004">
+      <c r="A20" s="30">
         <v>11</v>
       </c>
-      <c r="B20" s="15" t="s">
-        <v>37</v>
-      </c>
-      <c r="C20" s="16" t="s">
-        <v>113</v>
-      </c>
-      <c r="D20" s="11" t="s">
-        <v>57</v>
+      <c r="B20" s="10" t="s">
+        <v>28</v>
+      </c>
+      <c r="C20" s="11" t="s">
+        <v>72</v>
+      </c>
+      <c r="D20" s="9" t="s">
+        <v>101</v>
       </c>
       <c r="E20" s="8" t="s">
-        <v>91</v>
+        <v>88</v>
       </c>
       <c r="F20" s="8" t="s">
-        <v>15</v>
+        <v>100</v>
       </c>
       <c r="G20" s="8" t="s">
-        <v>65</v>
-      </c>
-      <c r="H20" s="21" t="s">
-        <v>72</v>
-      </c>
-      <c r="I20" s="22" t="s">
-        <v>83</v>
-      </c>
-      <c r="J20" s="22" t="s">
-        <v>84</v>
+        <v>53</v>
+      </c>
+      <c r="H20" s="16" t="s">
+        <v>99</v>
+      </c>
+      <c r="I20" s="17" t="s">
+        <v>63</v>
+      </c>
+      <c r="J20" s="17" t="s">
+        <v>64</v>
       </c>
       <c r="K20" s="1"/>
       <c r="L20" s="1"/>
@@ -5587,36 +4216,36 @@
       <c r="AB20" s="1"/>
       <c r="AC20" s="1"/>
     </row>
-    <row r="21" spans="1:29" ht="207.75" x14ac:dyDescent="0.55000000000000004">
-      <c r="A21" s="9">
+    <row r="21" spans="1:29" ht="256.5" x14ac:dyDescent="0.55000000000000004">
+      <c r="A21" s="30">
         <v>12</v>
       </c>
-      <c r="B21" s="15" t="s">
-        <v>38</v>
-      </c>
-      <c r="C21" s="16" t="s">
-        <v>115</v>
-      </c>
-      <c r="D21" s="11" t="s">
-        <v>58</v>
+      <c r="B21" s="10" t="s">
+        <v>29</v>
+      </c>
+      <c r="C21" s="11" t="s">
+        <v>72</v>
+      </c>
+      <c r="D21" s="9" t="s">
+        <v>103</v>
       </c>
       <c r="E21" s="8" t="s">
-        <v>92</v>
+        <v>88</v>
       </c>
       <c r="F21" s="8" t="s">
-        <v>110</v>
+        <v>102</v>
       </c>
       <c r="G21" s="8" t="s">
-        <v>66</v>
-      </c>
-      <c r="H21" s="21" t="s">
-        <v>73</v>
-      </c>
-      <c r="I21" s="22" t="s">
-        <v>83</v>
-      </c>
-      <c r="J21" s="22" t="s">
-        <v>84</v>
+        <v>53</v>
+      </c>
+      <c r="H21" s="16" t="s">
+        <v>99</v>
+      </c>
+      <c r="I21" s="17" t="s">
+        <v>63</v>
+      </c>
+      <c r="J21" s="17" t="s">
+        <v>64</v>
       </c>
       <c r="K21" s="1"/>
       <c r="L21" s="1"/>
@@ -5638,36 +4267,36 @@
       <c r="AB21" s="1"/>
       <c r="AC21" s="1"/>
     </row>
-    <row r="22" spans="1:29" ht="207.75" x14ac:dyDescent="0.55000000000000004">
-      <c r="A22" s="9">
+    <row r="22" spans="1:29" ht="256.5" x14ac:dyDescent="0.55000000000000004">
+      <c r="A22" s="30">
         <v>13</v>
       </c>
-      <c r="B22" s="15" t="s">
-        <v>39</v>
-      </c>
-      <c r="C22" s="16" t="s">
-        <v>115</v>
-      </c>
-      <c r="D22" s="11" t="s">
-        <v>58</v>
+      <c r="B22" s="10" t="s">
+        <v>30</v>
+      </c>
+      <c r="C22" s="11" t="s">
+        <v>72</v>
+      </c>
+      <c r="D22" s="9" t="s">
+        <v>105</v>
       </c>
       <c r="E22" s="8" t="s">
+        <v>88</v>
+      </c>
+      <c r="F22" s="8" t="s">
+        <v>104</v>
+      </c>
+      <c r="G22" s="8" t="s">
+        <v>53</v>
+      </c>
+      <c r="H22" s="16" t="s">
+        <v>106</v>
+      </c>
+      <c r="I22" s="17" t="s">
+        <v>63</v>
+      </c>
+      <c r="J22" s="17" t="s">
         <v>64</v>
-      </c>
-      <c r="F22" s="8" t="s">
-        <v>98</v>
-      </c>
-      <c r="G22" s="8" t="s">
-        <v>66</v>
-      </c>
-      <c r="H22" s="21" t="s">
-        <v>70</v>
-      </c>
-      <c r="I22" s="22" t="s">
-        <v>83</v>
-      </c>
-      <c r="J22" s="22" t="s">
-        <v>84</v>
       </c>
       <c r="K22" s="1"/>
       <c r="L22" s="1"/>
@@ -5689,36 +4318,36 @@
       <c r="AB22" s="1"/>
       <c r="AC22" s="1"/>
     </row>
-    <row r="23" spans="1:29" ht="207.75" x14ac:dyDescent="0.55000000000000004">
-      <c r="A23" s="9">
+    <row r="23" spans="1:29" ht="256.5" x14ac:dyDescent="0.55000000000000004">
+      <c r="A23" s="30">
         <v>14</v>
       </c>
-      <c r="B23" s="15" t="s">
-        <v>40</v>
-      </c>
-      <c r="C23" s="16" t="s">
-        <v>115</v>
-      </c>
-      <c r="D23" s="11" t="s">
-        <v>58</v>
+      <c r="B23" s="10" t="s">
+        <v>31</v>
+      </c>
+      <c r="C23" s="11" t="s">
+        <v>72</v>
+      </c>
+      <c r="D23" s="9" t="s">
+        <v>108</v>
       </c>
       <c r="E23" s="8" t="s">
+        <v>88</v>
+      </c>
+      <c r="F23" s="8" t="s">
+        <v>107</v>
+      </c>
+      <c r="G23" s="8" t="s">
+        <v>53</v>
+      </c>
+      <c r="H23" s="16" t="s">
+        <v>99</v>
+      </c>
+      <c r="I23" s="17" t="s">
+        <v>63</v>
+      </c>
+      <c r="J23" s="17" t="s">
         <v>64</v>
-      </c>
-      <c r="F23" s="8" t="s">
-        <v>99</v>
-      </c>
-      <c r="G23" s="8" t="s">
-        <v>66</v>
-      </c>
-      <c r="H23" s="21" t="s">
-        <v>74</v>
-      </c>
-      <c r="I23" s="22" t="s">
-        <v>83</v>
-      </c>
-      <c r="J23" s="22" t="s">
-        <v>84</v>
       </c>
       <c r="K23" s="1"/>
       <c r="L23" s="1"/>
@@ -5740,36 +4369,36 @@
       <c r="AB23" s="1"/>
       <c r="AC23" s="1"/>
     </row>
-    <row r="24" spans="1:29" ht="207.75" x14ac:dyDescent="0.55000000000000004">
-      <c r="A24" s="9">
+    <row r="24" spans="1:29" ht="256.5" x14ac:dyDescent="0.55000000000000004">
+      <c r="A24" s="30">
         <v>15</v>
       </c>
-      <c r="B24" s="15" t="s">
-        <v>41</v>
-      </c>
-      <c r="C24" s="16" t="s">
-        <v>115</v>
-      </c>
-      <c r="D24" s="11" t="s">
+      <c r="B24" s="10" t="s">
+        <v>32</v>
+      </c>
+      <c r="C24" s="11" t="s">
+        <v>74</v>
+      </c>
+      <c r="D24" s="9" t="s">
+        <v>49</v>
+      </c>
+      <c r="E24" s="8" t="s">
+        <v>109</v>
+      </c>
+      <c r="F24" s="24" t="s">
+        <v>110</v>
+      </c>
+      <c r="G24" s="8" t="s">
+        <v>54</v>
+      </c>
+      <c r="H24" s="16" t="s">
         <v>58</v>
       </c>
-      <c r="E24" s="8" t="s">
-        <v>93</v>
-      </c>
-      <c r="F24" s="8" t="s">
-        <v>100</v>
-      </c>
-      <c r="G24" s="8" t="s">
-        <v>66</v>
-      </c>
-      <c r="H24" s="21" t="s">
-        <v>74</v>
-      </c>
-      <c r="I24" s="22" t="s">
-        <v>83</v>
-      </c>
-      <c r="J24" s="22" t="s">
-        <v>84</v>
+      <c r="I24" s="17" t="s">
+        <v>63</v>
+      </c>
+      <c r="J24" s="17" t="s">
+        <v>64</v>
       </c>
       <c r="K24" s="1"/>
       <c r="L24" s="1"/>
@@ -5791,36 +4420,36 @@
       <c r="AB24" s="1"/>
       <c r="AC24" s="1"/>
     </row>
-    <row r="25" spans="1:29" ht="177.75" x14ac:dyDescent="0.55000000000000004">
-      <c r="A25" s="9">
+    <row r="25" spans="1:29" ht="256.5" x14ac:dyDescent="0.55000000000000004">
+      <c r="A25" s="30">
         <v>16</v>
       </c>
-      <c r="B25" s="15" t="s">
-        <v>42</v>
-      </c>
-      <c r="C25" s="16" t="s">
-        <v>115</v>
-      </c>
-      <c r="D25" s="11" t="s">
-        <v>58</v>
+      <c r="B25" s="10" t="s">
+        <v>33</v>
+      </c>
+      <c r="C25" s="11" t="s">
+        <v>74</v>
+      </c>
+      <c r="D25" s="9" t="s">
+        <v>111</v>
       </c>
       <c r="E25" s="8" t="s">
+        <v>109</v>
+      </c>
+      <c r="F25" s="24" t="s">
+        <v>112</v>
+      </c>
+      <c r="G25" s="8" t="s">
+        <v>54</v>
+      </c>
+      <c r="H25" s="16" t="s">
+        <v>116</v>
+      </c>
+      <c r="I25" s="17" t="s">
+        <v>63</v>
+      </c>
+      <c r="J25" s="17" t="s">
         <v>64</v>
-      </c>
-      <c r="F25" s="8" t="s">
-        <v>111</v>
-      </c>
-      <c r="G25" s="8" t="s">
-        <v>66</v>
-      </c>
-      <c r="H25" s="21" t="s">
-        <v>74</v>
-      </c>
-      <c r="I25" s="22" t="s">
-        <v>83</v>
-      </c>
-      <c r="J25" s="22" t="s">
-        <v>84</v>
       </c>
       <c r="K25" s="1"/>
       <c r="L25" s="1"/>
@@ -5842,36 +4471,36 @@
       <c r="AB25" s="1"/>
       <c r="AC25" s="1"/>
     </row>
-    <row r="26" spans="1:29" ht="207.75" x14ac:dyDescent="0.55000000000000004">
-      <c r="A26" s="9">
+    <row r="26" spans="1:29" ht="256.5" x14ac:dyDescent="0.55000000000000004">
+      <c r="A26" s="30">
         <v>17</v>
       </c>
-      <c r="B26" s="15" t="s">
-        <v>43</v>
-      </c>
-      <c r="C26" s="16" t="s">
-        <v>115</v>
-      </c>
-      <c r="D26" s="11" t="s">
-        <v>58</v>
+      <c r="B26" s="10" t="s">
+        <v>34</v>
+      </c>
+      <c r="C26" s="11" t="s">
+        <v>74</v>
+      </c>
+      <c r="D26" s="9" t="s">
+        <v>117</v>
       </c>
       <c r="E26" s="8" t="s">
+        <v>109</v>
+      </c>
+      <c r="F26" s="24" t="s">
+        <v>118</v>
+      </c>
+      <c r="G26" s="8" t="s">
+        <v>54</v>
+      </c>
+      <c r="H26" s="16" t="s">
+        <v>119</v>
+      </c>
+      <c r="I26" s="17" t="s">
+        <v>63</v>
+      </c>
+      <c r="J26" s="17" t="s">
         <v>64</v>
-      </c>
-      <c r="F26" s="8" t="s">
-        <v>101</v>
-      </c>
-      <c r="G26" s="8" t="s">
-        <v>66</v>
-      </c>
-      <c r="H26" s="21" t="s">
-        <v>74</v>
-      </c>
-      <c r="I26" s="22" t="s">
-        <v>83</v>
-      </c>
-      <c r="J26" s="22" t="s">
-        <v>84</v>
       </c>
       <c r="K26" s="1"/>
       <c r="L26" s="1"/>
@@ -5893,36 +4522,36 @@
       <c r="AB26" s="1"/>
       <c r="AC26" s="1"/>
     </row>
-    <row r="27" spans="1:29" ht="207.75" x14ac:dyDescent="0.55000000000000004">
-      <c r="A27" s="9">
+    <row r="27" spans="1:29" ht="313.5" x14ac:dyDescent="0.55000000000000004">
+      <c r="A27" s="30">
         <v>18</v>
       </c>
-      <c r="B27" s="15" t="s">
-        <v>44</v>
-      </c>
-      <c r="C27" s="16" t="s">
-        <v>115</v>
-      </c>
-      <c r="D27" s="11" t="s">
-        <v>58</v>
+      <c r="B27" s="10" t="s">
+        <v>35</v>
+      </c>
+      <c r="C27" s="11" t="s">
+        <v>74</v>
+      </c>
+      <c r="D27" s="9" t="s">
+        <v>120</v>
       </c>
       <c r="E27" s="8" t="s">
-        <v>94</v>
-      </c>
-      <c r="F27" s="8" t="s">
-        <v>102</v>
+        <v>109</v>
+      </c>
+      <c r="F27" s="24" t="s">
+        <v>121</v>
       </c>
       <c r="G27" s="8" t="s">
-        <v>66</v>
-      </c>
-      <c r="H27" s="21" t="s">
-        <v>112</v>
-      </c>
-      <c r="I27" s="22" t="s">
-        <v>83</v>
-      </c>
-      <c r="J27" s="22" t="s">
-        <v>84</v>
+        <v>54</v>
+      </c>
+      <c r="H27" s="16" t="s">
+        <v>125</v>
+      </c>
+      <c r="I27" s="17" t="s">
+        <v>63</v>
+      </c>
+      <c r="J27" s="17" t="s">
+        <v>64</v>
       </c>
       <c r="K27" s="1"/>
       <c r="L27" s="1"/>
@@ -5944,36 +4573,36 @@
       <c r="AB27" s="1"/>
       <c r="AC27" s="1"/>
     </row>
-    <row r="28" spans="1:29" ht="207.75" x14ac:dyDescent="0.55000000000000004">
-      <c r="A28" s="9">
+    <row r="28" spans="1:29" ht="327.75" x14ac:dyDescent="0.55000000000000004">
+      <c r="A28" s="30">
         <v>19</v>
       </c>
-      <c r="B28" s="15" t="s">
-        <v>45</v>
-      </c>
-      <c r="C28" s="16" t="s">
-        <v>115</v>
-      </c>
-      <c r="D28" s="11" t="s">
-        <v>58</v>
+      <c r="B28" s="10" t="s">
+        <v>36</v>
+      </c>
+      <c r="C28" s="11" t="s">
+        <v>74</v>
+      </c>
+      <c r="D28" s="9" t="s">
+        <v>123</v>
       </c>
       <c r="E28" s="8" t="s">
-        <v>119</v>
-      </c>
-      <c r="F28" s="8" t="s">
-        <v>103</v>
+        <v>109</v>
+      </c>
+      <c r="F28" s="24" t="s">
+        <v>122</v>
       </c>
       <c r="G28" s="8" t="s">
-        <v>66</v>
-      </c>
-      <c r="H28" s="21" t="s">
-        <v>74</v>
-      </c>
-      <c r="I28" s="22" t="s">
-        <v>83</v>
-      </c>
-      <c r="J28" s="22" t="s">
-        <v>84</v>
+        <v>54</v>
+      </c>
+      <c r="H28" s="16" t="s">
+        <v>124</v>
+      </c>
+      <c r="I28" s="17" t="s">
+        <v>63</v>
+      </c>
+      <c r="J28" s="17" t="s">
+        <v>64</v>
       </c>
       <c r="K28" s="1"/>
       <c r="L28" s="1"/>
@@ -5995,36 +4624,36 @@
       <c r="AB28" s="1"/>
       <c r="AC28" s="1"/>
     </row>
-    <row r="29" spans="1:29" ht="128.25" x14ac:dyDescent="0.55000000000000004">
-      <c r="A29" s="9">
+    <row r="29" spans="1:29" ht="327.75" x14ac:dyDescent="0.55000000000000004">
+      <c r="A29" s="30">
         <v>20</v>
       </c>
-      <c r="B29" s="15" t="s">
-        <v>46</v>
-      </c>
-      <c r="C29" s="16" t="s">
-        <v>121</v>
-      </c>
-      <c r="D29" s="11" t="s">
-        <v>116</v>
+      <c r="B29" s="10" t="s">
+        <v>37</v>
+      </c>
+      <c r="C29" s="11" t="s">
+        <v>74</v>
+      </c>
+      <c r="D29" s="9" t="s">
+        <v>126</v>
       </c>
       <c r="E29" s="8" t="s">
-        <v>117</v>
-      </c>
-      <c r="F29" s="8" t="s">
-        <v>16</v>
+        <v>109</v>
+      </c>
+      <c r="F29" s="24" t="s">
+        <v>127</v>
       </c>
       <c r="G29" s="8" t="s">
-        <v>120</v>
-      </c>
-      <c r="H29" s="21" t="s">
-        <v>75</v>
-      </c>
-      <c r="I29" s="22" t="s">
-        <v>83</v>
-      </c>
-      <c r="J29" s="22" t="s">
-        <v>84</v>
+        <v>54</v>
+      </c>
+      <c r="H29" s="16" t="s">
+        <v>128</v>
+      </c>
+      <c r="I29" s="17" t="s">
+        <v>63</v>
+      </c>
+      <c r="J29" s="17" t="s">
+        <v>64</v>
       </c>
       <c r="K29" s="1"/>
       <c r="L29" s="1"/>
@@ -6046,36 +4675,36 @@
       <c r="AB29" s="1"/>
       <c r="AC29" s="1"/>
     </row>
-    <row r="30" spans="1:29" ht="128.25" x14ac:dyDescent="0.55000000000000004">
-      <c r="A30" s="9">
+    <row r="30" spans="1:29" ht="256.5" x14ac:dyDescent="0.55000000000000004">
+      <c r="A30" s="30">
         <v>21</v>
       </c>
-      <c r="B30" s="15" t="s">
-        <v>47</v>
-      </c>
-      <c r="C30" s="16" t="s">
-        <v>121</v>
-      </c>
-      <c r="D30" s="11" t="s">
-        <v>116</v>
+      <c r="B30" s="10" t="s">
+        <v>38</v>
+      </c>
+      <c r="C30" s="11" t="s">
+        <v>74</v>
+      </c>
+      <c r="D30" s="9" t="s">
+        <v>130</v>
       </c>
       <c r="E30" s="8" t="s">
-        <v>118</v>
-      </c>
-      <c r="F30" s="8" t="s">
-        <v>17</v>
+        <v>109</v>
+      </c>
+      <c r="F30" s="24" t="s">
+        <v>129</v>
       </c>
       <c r="G30" s="8" t="s">
-        <v>120</v>
-      </c>
-      <c r="H30" s="21" t="s">
-        <v>76</v>
-      </c>
-      <c r="I30" s="22" t="s">
-        <v>83</v>
-      </c>
-      <c r="J30" s="22" t="s">
-        <v>84</v>
+        <v>54</v>
+      </c>
+      <c r="H30" s="16" t="s">
+        <v>119</v>
+      </c>
+      <c r="I30" s="17" t="s">
+        <v>63</v>
+      </c>
+      <c r="J30" s="17" t="s">
+        <v>64</v>
       </c>
       <c r="K30" s="1"/>
       <c r="L30" s="1"/>
@@ -6097,36 +4726,36 @@
       <c r="AB30" s="1"/>
       <c r="AC30" s="1"/>
     </row>
-    <row r="31" spans="1:29" ht="128.25" x14ac:dyDescent="0.55000000000000004">
-      <c r="A31" s="9">
+    <row r="31" spans="1:29" ht="285" x14ac:dyDescent="0.55000000000000004">
+      <c r="A31" s="30">
         <v>22</v>
       </c>
-      <c r="B31" s="15" t="s">
-        <v>48</v>
-      </c>
-      <c r="C31" s="16" t="s">
-        <v>121</v>
-      </c>
-      <c r="D31" s="11" t="s">
-        <v>116</v>
+      <c r="B31" s="10" t="s">
+        <v>39</v>
+      </c>
+      <c r="C31" s="11" t="s">
+        <v>74</v>
+      </c>
+      <c r="D31" s="9" t="s">
+        <v>131</v>
       </c>
       <c r="E31" s="8" t="s">
-        <v>118</v>
-      </c>
-      <c r="F31" s="8" t="s">
-        <v>18</v>
+        <v>109</v>
+      </c>
+      <c r="F31" s="24" t="s">
+        <v>132</v>
       </c>
       <c r="G31" s="8" t="s">
-        <v>120</v>
-      </c>
-      <c r="H31" s="21" t="s">
-        <v>77</v>
-      </c>
-      <c r="I31" s="22" t="s">
-        <v>83</v>
-      </c>
-      <c r="J31" s="22" t="s">
-        <v>84</v>
+        <v>54</v>
+      </c>
+      <c r="H31" s="16" t="s">
+        <v>133</v>
+      </c>
+      <c r="I31" s="17" t="s">
+        <v>63</v>
+      </c>
+      <c r="J31" s="17" t="s">
+        <v>64</v>
       </c>
       <c r="K31" s="1"/>
       <c r="L31" s="1"/>
@@ -6148,36 +4777,36 @@
       <c r="AB31" s="1"/>
       <c r="AC31" s="1"/>
     </row>
-    <row r="32" spans="1:29" ht="128.25" x14ac:dyDescent="0.55000000000000004">
-      <c r="A32" s="9">
+    <row r="32" spans="1:29" ht="285" x14ac:dyDescent="0.55000000000000004">
+      <c r="A32" s="30">
         <v>23</v>
       </c>
-      <c r="B32" s="15" t="s">
-        <v>49</v>
-      </c>
-      <c r="C32" s="16" t="s">
-        <v>121</v>
-      </c>
-      <c r="D32" s="11" t="s">
-        <v>116</v>
+      <c r="B32" s="10" t="s">
+        <v>40</v>
+      </c>
+      <c r="C32" s="11" t="s">
+        <v>74</v>
+      </c>
+      <c r="D32" s="9" t="s">
+        <v>135</v>
       </c>
       <c r="E32" s="8" t="s">
-        <v>118</v>
-      </c>
-      <c r="F32" s="8" t="s">
-        <v>19</v>
+        <v>109</v>
+      </c>
+      <c r="F32" s="24" t="s">
+        <v>134</v>
       </c>
       <c r="G32" s="8" t="s">
-        <v>120</v>
-      </c>
-      <c r="H32" s="21" t="s">
-        <v>77</v>
-      </c>
-      <c r="I32" s="22" t="s">
-        <v>83</v>
-      </c>
-      <c r="J32" s="22" t="s">
-        <v>84</v>
+        <v>54</v>
+      </c>
+      <c r="H32" s="16" t="s">
+        <v>136</v>
+      </c>
+      <c r="I32" s="17" t="s">
+        <v>63</v>
+      </c>
+      <c r="J32" s="17" t="s">
+        <v>64</v>
       </c>
       <c r="K32" s="1"/>
       <c r="L32" s="1"/>
@@ -6199,36 +4828,36 @@
       <c r="AB32" s="1"/>
       <c r="AC32" s="1"/>
     </row>
-    <row r="33" spans="1:29" ht="85.5" x14ac:dyDescent="0.55000000000000004">
-      <c r="A33" s="9">
+    <row r="33" spans="1:29" ht="114" x14ac:dyDescent="0.55000000000000004">
+      <c r="A33" s="30">
         <v>24</v>
       </c>
-      <c r="B33" s="15" t="s">
-        <v>50</v>
-      </c>
-      <c r="C33" s="16" t="s">
-        <v>122</v>
-      </c>
-      <c r="D33" s="11" t="s">
-        <v>59</v>
+      <c r="B33" s="10" t="s">
+        <v>41</v>
+      </c>
+      <c r="C33" s="11" t="s">
+        <v>74</v>
+      </c>
+      <c r="D33" s="9" t="s">
+        <v>137</v>
       </c>
       <c r="E33" s="8" t="s">
-        <v>95</v>
-      </c>
-      <c r="F33" s="8" t="s">
-        <v>20</v>
+        <v>109</v>
+      </c>
+      <c r="F33" s="24" t="s">
+        <v>138</v>
       </c>
       <c r="G33" s="8" t="s">
-        <v>67</v>
-      </c>
-      <c r="H33" s="21" t="s">
-        <v>78</v>
-      </c>
-      <c r="I33" s="22" t="s">
-        <v>83</v>
-      </c>
-      <c r="J33" s="22" t="s">
-        <v>84</v>
+        <v>54</v>
+      </c>
+      <c r="H33" s="16" t="s">
+        <v>139</v>
+      </c>
+      <c r="I33" s="17" t="s">
+        <v>63</v>
+      </c>
+      <c r="J33" s="17" t="s">
+        <v>64</v>
       </c>
       <c r="K33" s="1"/>
       <c r="L33" s="1"/>
@@ -6250,36 +4879,34 @@
       <c r="AB33" s="1"/>
       <c r="AC33" s="1"/>
     </row>
-    <row r="34" spans="1:29" ht="85.5" x14ac:dyDescent="0.55000000000000004">
-      <c r="A34" s="9">
+    <row r="34" spans="1:29" ht="409.5" x14ac:dyDescent="0.55000000000000004">
+      <c r="A34" s="30">
         <v>25</v>
       </c>
-      <c r="B34" s="15" t="s">
-        <v>51</v>
-      </c>
-      <c r="C34" s="16" t="s">
-        <v>122</v>
-      </c>
-      <c r="D34" s="11" t="s">
-        <v>59</v>
+      <c r="B34" s="10" t="s">
+        <v>42</v>
+      </c>
+      <c r="C34" s="11" t="s">
+        <v>74</v>
+      </c>
+      <c r="D34" s="9" t="s">
+        <v>140</v>
       </c>
       <c r="E34" s="8" t="s">
-        <v>95</v>
-      </c>
-      <c r="F34" s="8" t="s">
-        <v>21</v>
-      </c>
+        <v>109</v>
+      </c>
+      <c r="F34" s="24"/>
       <c r="G34" s="8" t="s">
-        <v>67</v>
-      </c>
-      <c r="H34" s="21" t="s">
-        <v>79</v>
-      </c>
-      <c r="I34" s="22" t="s">
-        <v>83</v>
-      </c>
-      <c r="J34" s="22" t="s">
-        <v>84</v>
+        <v>54</v>
+      </c>
+      <c r="H34" s="16" t="s">
+        <v>141</v>
+      </c>
+      <c r="I34" s="17" t="s">
+        <v>63</v>
+      </c>
+      <c r="J34" s="17" t="s">
+        <v>64</v>
       </c>
       <c r="K34" s="1"/>
       <c r="L34" s="1"/>
@@ -6301,36 +4928,36 @@
       <c r="AB34" s="1"/>
       <c r="AC34" s="1"/>
     </row>
-    <row r="35" spans="1:29" ht="85.5" x14ac:dyDescent="0.55000000000000004">
-      <c r="A35" s="9">
+    <row r="35" spans="1:29" ht="114" x14ac:dyDescent="0.55000000000000004">
+      <c r="A35" s="30">
         <v>26</v>
       </c>
-      <c r="B35" s="15" t="s">
-        <v>52</v>
-      </c>
-      <c r="C35" s="16" t="s">
-        <v>123</v>
-      </c>
-      <c r="D35" s="11" t="s">
-        <v>60</v>
+      <c r="B35" s="10" t="s">
+        <v>43</v>
+      </c>
+      <c r="C35" s="11" t="s">
+        <v>74</v>
+      </c>
+      <c r="D35" s="9" t="s">
+        <v>142</v>
       </c>
       <c r="E35" s="8" t="s">
-        <v>96</v>
-      </c>
-      <c r="F35" s="8" t="s">
-        <v>22</v>
+        <v>109</v>
+      </c>
+      <c r="F35" s="26">
+        <v>565</v>
       </c>
       <c r="G35" s="8" t="s">
-        <v>68</v>
-      </c>
-      <c r="H35" s="21" t="s">
-        <v>80</v>
-      </c>
-      <c r="I35" s="22" t="s">
-        <v>83</v>
-      </c>
-      <c r="J35" s="22" t="s">
-        <v>84</v>
+        <v>54</v>
+      </c>
+      <c r="H35" s="16" t="s">
+        <v>143</v>
+      </c>
+      <c r="I35" s="17" t="s">
+        <v>63</v>
+      </c>
+      <c r="J35" s="17" t="s">
+        <v>64</v>
       </c>
       <c r="K35" s="1"/>
       <c r="L35" s="1"/>
@@ -6352,36 +4979,36 @@
       <c r="AB35" s="1"/>
       <c r="AC35" s="1"/>
     </row>
-    <row r="36" spans="1:29" ht="85.5" x14ac:dyDescent="0.55000000000000004">
-      <c r="A36" s="9">
+    <row r="36" spans="1:29" ht="128.25" x14ac:dyDescent="0.55000000000000004">
+      <c r="A36" s="30">
         <v>27</v>
       </c>
-      <c r="B36" s="15" t="s">
-        <v>53</v>
-      </c>
-      <c r="C36" s="16" t="s">
-        <v>124</v>
-      </c>
-      <c r="D36" s="11" t="s">
-        <v>60</v>
+      <c r="B36" s="10" t="s">
+        <v>44</v>
+      </c>
+      <c r="C36" s="11" t="s">
+        <v>75</v>
+      </c>
+      <c r="D36" s="9" t="s">
+        <v>151</v>
       </c>
       <c r="E36" s="8" t="s">
-        <v>95</v>
+        <v>144</v>
       </c>
       <c r="F36" s="8" t="s">
-        <v>23</v>
+        <v>145</v>
       </c>
       <c r="G36" s="8" t="s">
-        <v>68</v>
-      </c>
-      <c r="H36" s="21" t="s">
-        <v>81</v>
-      </c>
-      <c r="I36" s="22" t="s">
-        <v>83</v>
-      </c>
-      <c r="J36" s="22" t="s">
-        <v>84</v>
+        <v>146</v>
+      </c>
+      <c r="H36" s="16" t="s">
+        <v>147</v>
+      </c>
+      <c r="I36" s="17" t="s">
+        <v>63</v>
+      </c>
+      <c r="J36" s="17" t="s">
+        <v>64</v>
       </c>
       <c r="K36" s="1"/>
       <c r="L36" s="1"/>
@@ -6403,36 +5030,36 @@
       <c r="AB36" s="1"/>
       <c r="AC36" s="1"/>
     </row>
-    <row r="37" spans="1:29" ht="85.5" x14ac:dyDescent="0.55000000000000004">
-      <c r="A37" s="9">
+    <row r="37" spans="1:29" ht="128.25" x14ac:dyDescent="0.55000000000000004">
+      <c r="A37" s="30">
         <v>28</v>
       </c>
-      <c r="B37" s="15" t="s">
-        <v>54</v>
-      </c>
-      <c r="C37" s="16" t="s">
-        <v>124</v>
-      </c>
-      <c r="D37" s="11" t="s">
-        <v>61</v>
+      <c r="B37" s="10" t="s">
+        <v>45</v>
+      </c>
+      <c r="C37" s="11" t="s">
+        <v>75</v>
+      </c>
+      <c r="D37" s="9" t="s">
+        <v>153</v>
       </c>
       <c r="E37" s="8" t="s">
-        <v>97</v>
+        <v>144</v>
       </c>
       <c r="F37" s="8" t="s">
-        <v>24</v>
+        <v>148</v>
       </c>
       <c r="G37" s="8" t="s">
-        <v>69</v>
-      </c>
-      <c r="H37" s="21" t="s">
-        <v>82</v>
-      </c>
-      <c r="I37" s="22" t="s">
-        <v>83</v>
-      </c>
-      <c r="J37" s="22" t="s">
-        <v>84</v>
+        <v>146</v>
+      </c>
+      <c r="H37" s="16" t="s">
+        <v>149</v>
+      </c>
+      <c r="I37" s="17" t="s">
+        <v>63</v>
+      </c>
+      <c r="J37" s="17" t="s">
+        <v>64</v>
       </c>
       <c r="K37" s="1"/>
       <c r="L37" s="1"/>
@@ -6454,36 +5081,36 @@
       <c r="AB37" s="1"/>
       <c r="AC37" s="1"/>
     </row>
-    <row r="38" spans="1:29" ht="85.5" x14ac:dyDescent="0.55000000000000004">
-      <c r="A38" s="9">
+    <row r="38" spans="1:29" ht="128.25" x14ac:dyDescent="0.55000000000000004">
+      <c r="A38" s="30">
         <v>29</v>
       </c>
-      <c r="B38" s="15" t="s">
-        <v>55</v>
-      </c>
-      <c r="C38" s="16" t="s">
-        <v>124</v>
-      </c>
-      <c r="D38" s="11" t="s">
-        <v>61</v>
+      <c r="B38" s="10" t="s">
+        <v>46</v>
+      </c>
+      <c r="C38" s="11" t="s">
+        <v>75</v>
+      </c>
+      <c r="D38" s="9" t="s">
+        <v>154</v>
       </c>
       <c r="E38" s="8" t="s">
-        <v>97</v>
+        <v>144</v>
       </c>
       <c r="F38" s="8" t="s">
-        <v>25</v>
+        <v>150</v>
       </c>
       <c r="G38" s="8" t="s">
-        <v>69</v>
-      </c>
-      <c r="H38" s="21" t="s">
-        <v>81</v>
-      </c>
-      <c r="I38" s="22" t="s">
-        <v>83</v>
-      </c>
-      <c r="J38" s="22" t="s">
-        <v>84</v>
+        <v>146</v>
+      </c>
+      <c r="H38" s="16" t="s">
+        <v>149</v>
+      </c>
+      <c r="I38" s="17" t="s">
+        <v>63</v>
+      </c>
+      <c r="J38" s="17" t="s">
+        <v>64</v>
       </c>
       <c r="K38" s="1"/>
       <c r="L38" s="1"/>
@@ -6505,17 +5132,37 @@
       <c r="AB38" s="1"/>
       <c r="AC38" s="1"/>
     </row>
-    <row r="39" spans="1:29" ht="19.5" x14ac:dyDescent="0.55000000000000004">
-      <c r="A39" s="1"/>
-      <c r="B39" s="1"/>
-      <c r="C39" s="1"/>
-      <c r="D39" s="1"/>
-      <c r="E39" s="2"/>
-      <c r="F39" s="2"/>
-      <c r="G39" s="1"/>
-      <c r="H39" s="1"/>
-      <c r="I39" s="1"/>
-      <c r="J39" s="1"/>
+    <row r="39" spans="1:29" ht="128.25" x14ac:dyDescent="0.55000000000000004">
+      <c r="A39" s="30">
+        <v>30</v>
+      </c>
+      <c r="B39" s="10" t="s">
+        <v>164</v>
+      </c>
+      <c r="C39" s="11" t="s">
+        <v>75</v>
+      </c>
+      <c r="D39" s="9" t="s">
+        <v>155</v>
+      </c>
+      <c r="E39" s="8" t="s">
+        <v>144</v>
+      </c>
+      <c r="F39" s="8" t="s">
+        <v>152</v>
+      </c>
+      <c r="G39" s="8" t="s">
+        <v>146</v>
+      </c>
+      <c r="H39" s="16" t="s">
+        <v>149</v>
+      </c>
+      <c r="I39" s="17" t="s">
+        <v>63</v>
+      </c>
+      <c r="J39" s="17" t="s">
+        <v>64</v>
+      </c>
       <c r="K39" s="1"/>
       <c r="L39" s="1"/>
       <c r="M39" s="1"/>
@@ -6536,17 +5183,37 @@
       <c r="AB39" s="1"/>
       <c r="AC39" s="1"/>
     </row>
-    <row r="40" spans="1:29" ht="19.5" x14ac:dyDescent="0.55000000000000004">
-      <c r="A40" s="1"/>
-      <c r="B40" s="1"/>
-      <c r="C40" s="1"/>
-      <c r="D40" s="1"/>
-      <c r="E40" s="2"/>
-      <c r="F40" s="2"/>
-      <c r="G40" s="1"/>
-      <c r="H40" s="1"/>
-      <c r="I40" s="1"/>
-      <c r="J40" s="1"/>
+    <row r="40" spans="1:29" ht="142.5" x14ac:dyDescent="0.55000000000000004">
+      <c r="A40" s="30">
+        <v>31</v>
+      </c>
+      <c r="B40" s="10" t="s">
+        <v>165</v>
+      </c>
+      <c r="C40" s="11" t="s">
+        <v>75</v>
+      </c>
+      <c r="D40" s="9" t="s">
+        <v>156</v>
+      </c>
+      <c r="E40" s="8" t="s">
+        <v>159</v>
+      </c>
+      <c r="F40" s="8" t="s">
+        <v>157</v>
+      </c>
+      <c r="G40" s="8" t="s">
+        <v>158</v>
+      </c>
+      <c r="H40" s="16" t="s">
+        <v>160</v>
+      </c>
+      <c r="I40" s="17" t="s">
+        <v>63</v>
+      </c>
+      <c r="J40" s="17" t="s">
+        <v>64</v>
+      </c>
       <c r="K40" s="1"/>
       <c r="L40" s="1"/>
       <c r="M40" s="1"/>
@@ -6567,17 +5234,37 @@
       <c r="AB40" s="1"/>
       <c r="AC40" s="1"/>
     </row>
-    <row r="41" spans="1:29" ht="19.5" x14ac:dyDescent="0.55000000000000004">
-      <c r="A41" s="1"/>
-      <c r="B41" s="1"/>
-      <c r="C41" s="1"/>
-      <c r="D41" s="1"/>
-      <c r="E41" s="2"/>
-      <c r="F41" s="2"/>
-      <c r="G41" s="1"/>
-      <c r="H41" s="1"/>
-      <c r="I41" s="1"/>
-      <c r="J41" s="1"/>
+    <row r="41" spans="1:29" ht="142.5" x14ac:dyDescent="0.55000000000000004">
+      <c r="A41" s="30">
+        <v>32</v>
+      </c>
+      <c r="B41" s="10" t="s">
+        <v>166</v>
+      </c>
+      <c r="C41" s="11" t="s">
+        <v>75</v>
+      </c>
+      <c r="D41" s="9" t="s">
+        <v>161</v>
+      </c>
+      <c r="E41" s="8" t="s">
+        <v>159</v>
+      </c>
+      <c r="F41" s="8" t="s">
+        <v>167</v>
+      </c>
+      <c r="G41" s="8" t="s">
+        <v>158</v>
+      </c>
+      <c r="H41" s="16" t="s">
+        <v>162</v>
+      </c>
+      <c r="I41" s="17" t="s">
+        <v>63</v>
+      </c>
+      <c r="J41" s="17" t="s">
+        <v>64</v>
+      </c>
       <c r="K41" s="1"/>
       <c r="L41" s="1"/>
       <c r="M41" s="1"/>
@@ -6598,17 +5285,37 @@
       <c r="AB41" s="1"/>
       <c r="AC41" s="1"/>
     </row>
-    <row r="42" spans="1:29" ht="19.5" x14ac:dyDescent="0.55000000000000004">
-      <c r="A42" s="1"/>
-      <c r="B42" s="1"/>
-      <c r="C42" s="1"/>
-      <c r="D42" s="1"/>
-      <c r="E42" s="2"/>
-      <c r="F42" s="2"/>
-      <c r="G42" s="1"/>
-      <c r="H42" s="1"/>
-      <c r="I42" s="1"/>
-      <c r="J42" s="1"/>
+    <row r="42" spans="1:29" ht="142.5" x14ac:dyDescent="0.55000000000000004">
+      <c r="A42" s="30">
+        <v>33</v>
+      </c>
+      <c r="B42" s="10" t="s">
+        <v>168</v>
+      </c>
+      <c r="C42" s="11" t="s">
+        <v>75</v>
+      </c>
+      <c r="D42" s="9" t="s">
+        <v>169</v>
+      </c>
+      <c r="E42" s="8" t="s">
+        <v>159</v>
+      </c>
+      <c r="F42" s="8" t="s">
+        <v>170</v>
+      </c>
+      <c r="G42" s="8" t="s">
+        <v>158</v>
+      </c>
+      <c r="H42" s="16" t="s">
+        <v>171</v>
+      </c>
+      <c r="I42" s="17" t="s">
+        <v>63</v>
+      </c>
+      <c r="J42" s="17" t="s">
+        <v>64</v>
+      </c>
       <c r="K42" s="1"/>
       <c r="L42" s="1"/>
       <c r="M42" s="1"/>
@@ -6629,17 +5336,37 @@
       <c r="AB42" s="1"/>
       <c r="AC42" s="1"/>
     </row>
-    <row r="43" spans="1:29" ht="19.5" x14ac:dyDescent="0.55000000000000004">
-      <c r="A43" s="1"/>
-      <c r="B43" s="1"/>
-      <c r="C43" s="1"/>
-      <c r="D43" s="1"/>
-      <c r="E43" s="2"/>
-      <c r="F43" s="2"/>
-      <c r="G43" s="1"/>
-      <c r="H43" s="1"/>
-      <c r="I43" s="1"/>
-      <c r="J43" s="1"/>
+    <row r="43" spans="1:29" ht="142.5" x14ac:dyDescent="0.55000000000000004">
+      <c r="A43" s="30">
+        <v>34</v>
+      </c>
+      <c r="B43" s="10" t="s">
+        <v>172</v>
+      </c>
+      <c r="C43" s="11" t="s">
+        <v>75</v>
+      </c>
+      <c r="D43" s="9" t="s">
+        <v>173</v>
+      </c>
+      <c r="E43" s="8" t="s">
+        <v>159</v>
+      </c>
+      <c r="F43" s="8" t="s">
+        <v>174</v>
+      </c>
+      <c r="G43" s="8" t="s">
+        <v>158</v>
+      </c>
+      <c r="H43" s="16" t="s">
+        <v>171</v>
+      </c>
+      <c r="I43" s="17" t="s">
+        <v>63</v>
+      </c>
+      <c r="J43" s="17" t="s">
+        <v>64</v>
+      </c>
       <c r="K43" s="1"/>
       <c r="L43" s="1"/>
       <c r="M43" s="1"/>
@@ -6660,17 +5387,37 @@
       <c r="AB43" s="1"/>
       <c r="AC43" s="1"/>
     </row>
-    <row r="44" spans="1:29" ht="19.5" x14ac:dyDescent="0.55000000000000004">
-      <c r="A44" s="1"/>
-      <c r="B44" s="1"/>
-      <c r="C44" s="1"/>
-      <c r="D44" s="1"/>
-      <c r="E44" s="2"/>
-      <c r="F44" s="2"/>
-      <c r="G44" s="1"/>
-      <c r="H44" s="1"/>
-      <c r="I44" s="1"/>
-      <c r="J44" s="1"/>
+    <row r="44" spans="1:29" ht="128.25" x14ac:dyDescent="0.55000000000000004">
+      <c r="A44" s="30">
+        <v>35</v>
+      </c>
+      <c r="B44" s="10" t="s">
+        <v>175</v>
+      </c>
+      <c r="C44" s="11" t="s">
+        <v>75</v>
+      </c>
+      <c r="D44" s="9" t="s">
+        <v>176</v>
+      </c>
+      <c r="E44" s="8" t="s">
+        <v>159</v>
+      </c>
+      <c r="F44" s="8" t="s">
+        <v>177</v>
+      </c>
+      <c r="G44" s="8" t="s">
+        <v>158</v>
+      </c>
+      <c r="H44" s="16" t="s">
+        <v>178</v>
+      </c>
+      <c r="I44" s="17" t="s">
+        <v>63</v>
+      </c>
+      <c r="J44" s="17" t="s">
+        <v>64</v>
+      </c>
       <c r="K44" s="1"/>
       <c r="L44" s="1"/>
       <c r="M44" s="1"/>
@@ -6691,17 +5438,37 @@
       <c r="AB44" s="1"/>
       <c r="AC44" s="1"/>
     </row>
-    <row r="45" spans="1:29" ht="19.5" x14ac:dyDescent="0.55000000000000004">
-      <c r="A45" s="1"/>
-      <c r="B45" s="1"/>
-      <c r="C45" s="1"/>
-      <c r="D45" s="1"/>
-      <c r="E45" s="2"/>
-      <c r="F45" s="2"/>
-      <c r="G45" s="1"/>
-      <c r="H45" s="1"/>
-      <c r="I45" s="1"/>
-      <c r="J45" s="1"/>
+    <row r="45" spans="1:29" ht="114" hidden="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A45" s="30">
+        <v>36</v>
+      </c>
+      <c r="B45" s="10" t="s">
+        <v>179</v>
+      </c>
+      <c r="C45" s="18" t="s">
+        <v>76</v>
+      </c>
+      <c r="D45" s="23" t="s">
+        <v>50</v>
+      </c>
+      <c r="E45" s="8" t="s">
+        <v>159</v>
+      </c>
+      <c r="F45" s="19" t="s">
+        <v>13</v>
+      </c>
+      <c r="G45" s="19" t="s">
+        <v>55</v>
+      </c>
+      <c r="H45" s="20" t="s">
+        <v>59</v>
+      </c>
+      <c r="I45" s="21" t="s">
+        <v>63</v>
+      </c>
+      <c r="J45" s="21" t="s">
+        <v>64</v>
+      </c>
       <c r="K45" s="1"/>
       <c r="L45" s="1"/>
       <c r="M45" s="1"/>
@@ -6722,17 +5489,37 @@
       <c r="AB45" s="1"/>
       <c r="AC45" s="1"/>
     </row>
-    <row r="46" spans="1:29" ht="19.5" x14ac:dyDescent="0.55000000000000004">
-      <c r="A46" s="1"/>
-      <c r="B46" s="1"/>
-      <c r="C46" s="1"/>
-      <c r="D46" s="1"/>
-      <c r="E46" s="2"/>
-      <c r="F46" s="2"/>
-      <c r="G46" s="1"/>
-      <c r="H46" s="1"/>
-      <c r="I46" s="1"/>
-      <c r="J46" s="1"/>
+    <row r="46" spans="1:29" ht="114" hidden="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A46" s="30">
+        <v>37</v>
+      </c>
+      <c r="B46" s="10" t="s">
+        <v>180</v>
+      </c>
+      <c r="C46" s="18" t="s">
+        <v>76</v>
+      </c>
+      <c r="D46" s="23" t="s">
+        <v>50</v>
+      </c>
+      <c r="E46" s="8" t="s">
+        <v>159</v>
+      </c>
+      <c r="F46" s="19" t="s">
+        <v>14</v>
+      </c>
+      <c r="G46" s="19" t="s">
+        <v>55</v>
+      </c>
+      <c r="H46" s="20" t="s">
+        <v>60</v>
+      </c>
+      <c r="I46" s="21" t="s">
+        <v>63</v>
+      </c>
+      <c r="J46" s="21" t="s">
+        <v>64</v>
+      </c>
       <c r="K46" s="1"/>
       <c r="L46" s="1"/>
       <c r="M46" s="1"/>
@@ -6753,17 +5540,37 @@
       <c r="AB46" s="1"/>
       <c r="AC46" s="1"/>
     </row>
-    <row r="47" spans="1:29" ht="19.5" x14ac:dyDescent="0.55000000000000004">
-      <c r="A47" s="1"/>
-      <c r="B47" s="1"/>
-      <c r="C47" s="1"/>
-      <c r="D47" s="1"/>
-      <c r="E47" s="2"/>
-      <c r="F47" s="2"/>
-      <c r="G47" s="1"/>
-      <c r="H47" s="1"/>
-      <c r="I47" s="1"/>
-      <c r="J47" s="1"/>
+    <row r="47" spans="1:29" ht="114" hidden="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A47" s="30">
+        <v>38</v>
+      </c>
+      <c r="B47" s="10" t="s">
+        <v>181</v>
+      </c>
+      <c r="C47" s="11" t="s">
+        <v>77</v>
+      </c>
+      <c r="D47" s="9" t="s">
+        <v>51</v>
+      </c>
+      <c r="E47" s="8" t="s">
+        <v>159</v>
+      </c>
+      <c r="F47" s="8" t="s">
+        <v>15</v>
+      </c>
+      <c r="G47" s="8" t="s">
+        <v>56</v>
+      </c>
+      <c r="H47" s="16" t="s">
+        <v>61</v>
+      </c>
+      <c r="I47" s="17" t="s">
+        <v>63</v>
+      </c>
+      <c r="J47" s="17" t="s">
+        <v>64</v>
+      </c>
       <c r="K47" s="1"/>
       <c r="L47" s="1"/>
       <c r="M47" s="1"/>
@@ -6784,17 +5591,37 @@
       <c r="AB47" s="1"/>
       <c r="AC47" s="1"/>
     </row>
-    <row r="48" spans="1:29" ht="19.5" x14ac:dyDescent="0.55000000000000004">
-      <c r="A48" s="1"/>
-      <c r="B48" s="1"/>
-      <c r="C48" s="1"/>
-      <c r="D48" s="1"/>
-      <c r="E48" s="2"/>
-      <c r="F48" s="2"/>
-      <c r="G48" s="1"/>
-      <c r="H48" s="1"/>
-      <c r="I48" s="1"/>
-      <c r="J48" s="1"/>
+    <row r="48" spans="1:29" ht="114" hidden="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A48" s="30">
+        <v>39</v>
+      </c>
+      <c r="B48" s="10" t="s">
+        <v>182</v>
+      </c>
+      <c r="C48" s="11" t="s">
+        <v>77</v>
+      </c>
+      <c r="D48" s="9" t="s">
+        <v>51</v>
+      </c>
+      <c r="E48" s="8" t="s">
+        <v>159</v>
+      </c>
+      <c r="F48" s="8" t="s">
+        <v>16</v>
+      </c>
+      <c r="G48" s="8" t="s">
+        <v>56</v>
+      </c>
+      <c r="H48" s="16" t="s">
+        <v>62</v>
+      </c>
+      <c r="I48" s="17" t="s">
+        <v>63</v>
+      </c>
+      <c r="J48" s="17" t="s">
+        <v>64</v>
+      </c>
       <c r="K48" s="1"/>
       <c r="L48" s="1"/>
       <c r="M48" s="1"/>
@@ -6815,17 +5642,37 @@
       <c r="AB48" s="1"/>
       <c r="AC48" s="1"/>
     </row>
-    <row r="49" spans="1:29" ht="19.5" x14ac:dyDescent="0.55000000000000004">
-      <c r="A49" s="1"/>
-      <c r="B49" s="1"/>
-      <c r="C49" s="1"/>
-      <c r="D49" s="1"/>
-      <c r="E49" s="2"/>
-      <c r="F49" s="2"/>
-      <c r="G49" s="1"/>
-      <c r="H49" s="1"/>
-      <c r="I49" s="1"/>
-      <c r="J49" s="1"/>
+    <row r="49" spans="1:29" ht="128.25" x14ac:dyDescent="0.55000000000000004">
+      <c r="A49" s="30">
+        <v>40</v>
+      </c>
+      <c r="B49" s="10" t="s">
+        <v>183</v>
+      </c>
+      <c r="C49" s="11" t="s">
+        <v>78</v>
+      </c>
+      <c r="D49" s="9" t="s">
+        <v>184</v>
+      </c>
+      <c r="E49" s="8" t="s">
+        <v>185</v>
+      </c>
+      <c r="F49" s="8" t="s">
+        <v>186</v>
+      </c>
+      <c r="G49" s="8" t="s">
+        <v>57</v>
+      </c>
+      <c r="H49" s="16" t="s">
+        <v>187</v>
+      </c>
+      <c r="I49" s="17" t="s">
+        <v>63</v>
+      </c>
+      <c r="J49" s="17" t="s">
+        <v>64</v>
+      </c>
       <c r="K49" s="1"/>
       <c r="L49" s="1"/>
       <c r="M49" s="1"/>
@@ -6846,17 +5693,37 @@
       <c r="AB49" s="1"/>
       <c r="AC49" s="1"/>
     </row>
-    <row r="50" spans="1:29" ht="19.5" x14ac:dyDescent="0.55000000000000004">
-      <c r="A50" s="1"/>
-      <c r="B50" s="1"/>
-      <c r="C50" s="1"/>
-      <c r="D50" s="1"/>
-      <c r="E50" s="2"/>
-      <c r="F50" s="2"/>
-      <c r="G50" s="1"/>
-      <c r="H50" s="1"/>
-      <c r="I50" s="1"/>
-      <c r="J50" s="1"/>
+    <row r="50" spans="1:29" ht="128.25" x14ac:dyDescent="0.55000000000000004">
+      <c r="A50" s="30">
+        <v>41</v>
+      </c>
+      <c r="B50" s="10" t="s">
+        <v>188</v>
+      </c>
+      <c r="C50" s="11" t="s">
+        <v>78</v>
+      </c>
+      <c r="D50" s="9" t="s">
+        <v>189</v>
+      </c>
+      <c r="E50" s="8" t="s">
+        <v>185</v>
+      </c>
+      <c r="F50" s="8" t="s">
+        <v>190</v>
+      </c>
+      <c r="G50" s="8" t="s">
+        <v>57</v>
+      </c>
+      <c r="H50" s="16" t="s">
+        <v>191</v>
+      </c>
+      <c r="I50" s="17" t="s">
+        <v>63</v>
+      </c>
+      <c r="J50" s="17" t="s">
+        <v>64</v>
+      </c>
       <c r="K50" s="1"/>
       <c r="L50" s="1"/>
       <c r="M50" s="1"/>
@@ -6877,17 +5744,37 @@
       <c r="AB50" s="1"/>
       <c r="AC50" s="1"/>
     </row>
-    <row r="51" spans="1:29" ht="19.5" x14ac:dyDescent="0.55000000000000004">
-      <c r="A51" s="1"/>
-      <c r="B51" s="1"/>
-      <c r="C51" s="1"/>
-      <c r="D51" s="1"/>
-      <c r="E51" s="2"/>
-      <c r="F51" s="2"/>
-      <c r="G51" s="1"/>
-      <c r="H51" s="1"/>
-      <c r="I51" s="1"/>
-      <c r="J51" s="1"/>
+    <row r="51" spans="1:29" ht="128.25" x14ac:dyDescent="0.55000000000000004">
+      <c r="A51" s="30">
+        <v>42</v>
+      </c>
+      <c r="B51" s="10" t="s">
+        <v>192</v>
+      </c>
+      <c r="C51" s="11" t="s">
+        <v>78</v>
+      </c>
+      <c r="D51" s="9" t="s">
+        <v>193</v>
+      </c>
+      <c r="E51" s="8" t="s">
+        <v>185</v>
+      </c>
+      <c r="F51" s="8" t="s">
+        <v>194</v>
+      </c>
+      <c r="G51" s="8" t="s">
+        <v>57</v>
+      </c>
+      <c r="H51" s="16" t="s">
+        <v>191</v>
+      </c>
+      <c r="I51" s="17" t="s">
+        <v>63</v>
+      </c>
+      <c r="J51" s="17" t="s">
+        <v>64</v>
+      </c>
       <c r="K51" s="1"/>
       <c r="L51" s="1"/>
       <c r="M51" s="1"/>
@@ -6908,17 +5795,37 @@
       <c r="AB51" s="1"/>
       <c r="AC51" s="1"/>
     </row>
-    <row r="52" spans="1:29" ht="19.5" x14ac:dyDescent="0.55000000000000004">
-      <c r="A52" s="1"/>
-      <c r="B52" s="1"/>
-      <c r="C52" s="1"/>
-      <c r="D52" s="1"/>
-      <c r="E52" s="2"/>
-      <c r="F52" s="2"/>
-      <c r="G52" s="1"/>
-      <c r="H52" s="1"/>
-      <c r="I52" s="1"/>
-      <c r="J52" s="1"/>
+    <row r="52" spans="1:29" ht="128.25" x14ac:dyDescent="0.55000000000000004">
+      <c r="A52" s="30">
+        <v>43</v>
+      </c>
+      <c r="B52" s="10" t="s">
+        <v>195</v>
+      </c>
+      <c r="C52" s="11" t="s">
+        <v>78</v>
+      </c>
+      <c r="D52" s="9" t="s">
+        <v>196</v>
+      </c>
+      <c r="E52" s="8" t="s">
+        <v>185</v>
+      </c>
+      <c r="F52" s="8" t="s">
+        <v>197</v>
+      </c>
+      <c r="G52" s="8" t="s">
+        <v>57</v>
+      </c>
+      <c r="H52" s="16" t="s">
+        <v>198</v>
+      </c>
+      <c r="I52" s="17" t="s">
+        <v>63</v>
+      </c>
+      <c r="J52" s="17" t="s">
+        <v>64</v>
+      </c>
       <c r="K52" s="1"/>
       <c r="L52" s="1"/>
       <c r="M52" s="1"/>
@@ -36544,9 +35451,354 @@
       <c r="AB1007" s="1"/>
       <c r="AC1007" s="1"/>
     </row>
+    <row r="1008" spans="1:29" ht="19.5" x14ac:dyDescent="0.55000000000000004">
+      <c r="A1008" s="1"/>
+      <c r="B1008" s="1"/>
+      <c r="C1008" s="1"/>
+      <c r="D1008" s="1"/>
+      <c r="E1008" s="2"/>
+      <c r="F1008" s="2"/>
+      <c r="G1008" s="1"/>
+      <c r="H1008" s="1"/>
+      <c r="I1008" s="1"/>
+      <c r="J1008" s="1"/>
+      <c r="K1008" s="1"/>
+      <c r="L1008" s="1"/>
+      <c r="M1008" s="1"/>
+      <c r="N1008" s="1"/>
+      <c r="O1008" s="1"/>
+      <c r="P1008" s="1"/>
+      <c r="Q1008" s="1"/>
+      <c r="R1008" s="1"/>
+      <c r="S1008" s="1"/>
+      <c r="T1008" s="1"/>
+      <c r="U1008" s="1"/>
+      <c r="V1008" s="1"/>
+      <c r="W1008" s="1"/>
+      <c r="X1008" s="1"/>
+      <c r="Y1008" s="1"/>
+      <c r="Z1008" s="1"/>
+      <c r="AA1008" s="1"/>
+      <c r="AB1008" s="1"/>
+      <c r="AC1008" s="1"/>
+    </row>
+    <row r="1009" spans="1:29" ht="19.5" x14ac:dyDescent="0.55000000000000004">
+      <c r="A1009" s="1"/>
+      <c r="B1009" s="1"/>
+      <c r="C1009" s="1"/>
+      <c r="D1009" s="1"/>
+      <c r="E1009" s="2"/>
+      <c r="F1009" s="2"/>
+      <c r="G1009" s="1"/>
+      <c r="H1009" s="1"/>
+      <c r="I1009" s="1"/>
+      <c r="J1009" s="1"/>
+      <c r="K1009" s="1"/>
+      <c r="L1009" s="1"/>
+      <c r="M1009" s="1"/>
+      <c r="N1009" s="1"/>
+      <c r="O1009" s="1"/>
+      <c r="P1009" s="1"/>
+      <c r="Q1009" s="1"/>
+      <c r="R1009" s="1"/>
+      <c r="S1009" s="1"/>
+      <c r="T1009" s="1"/>
+      <c r="U1009" s="1"/>
+      <c r="V1009" s="1"/>
+      <c r="W1009" s="1"/>
+      <c r="X1009" s="1"/>
+      <c r="Y1009" s="1"/>
+      <c r="Z1009" s="1"/>
+      <c r="AA1009" s="1"/>
+      <c r="AB1009" s="1"/>
+      <c r="AC1009" s="1"/>
+    </row>
+    <row r="1010" spans="1:29" ht="19.5" x14ac:dyDescent="0.55000000000000004">
+      <c r="A1010" s="1"/>
+      <c r="B1010" s="1"/>
+      <c r="C1010" s="1"/>
+      <c r="D1010" s="1"/>
+      <c r="E1010" s="2"/>
+      <c r="F1010" s="2"/>
+      <c r="G1010" s="1"/>
+      <c r="H1010" s="1"/>
+      <c r="I1010" s="1"/>
+      <c r="J1010" s="1"/>
+      <c r="K1010" s="1"/>
+      <c r="L1010" s="1"/>
+      <c r="M1010" s="1"/>
+      <c r="N1010" s="1"/>
+      <c r="O1010" s="1"/>
+      <c r="P1010" s="1"/>
+      <c r="Q1010" s="1"/>
+      <c r="R1010" s="1"/>
+      <c r="S1010" s="1"/>
+      <c r="T1010" s="1"/>
+      <c r="U1010" s="1"/>
+      <c r="V1010" s="1"/>
+      <c r="W1010" s="1"/>
+      <c r="X1010" s="1"/>
+      <c r="Y1010" s="1"/>
+      <c r="Z1010" s="1"/>
+      <c r="AA1010" s="1"/>
+      <c r="AB1010" s="1"/>
+      <c r="AC1010" s="1"/>
+    </row>
+    <row r="1011" spans="1:29" ht="19.5" x14ac:dyDescent="0.55000000000000004">
+      <c r="A1011" s="1"/>
+      <c r="B1011" s="1"/>
+      <c r="C1011" s="1"/>
+      <c r="D1011" s="1"/>
+      <c r="E1011" s="2"/>
+      <c r="F1011" s="2"/>
+      <c r="G1011" s="1"/>
+      <c r="H1011" s="1"/>
+      <c r="I1011" s="1"/>
+      <c r="J1011" s="1"/>
+      <c r="K1011" s="1"/>
+      <c r="L1011" s="1"/>
+      <c r="M1011" s="1"/>
+      <c r="N1011" s="1"/>
+      <c r="O1011" s="1"/>
+      <c r="P1011" s="1"/>
+      <c r="Q1011" s="1"/>
+      <c r="R1011" s="1"/>
+      <c r="S1011" s="1"/>
+      <c r="T1011" s="1"/>
+      <c r="U1011" s="1"/>
+      <c r="V1011" s="1"/>
+      <c r="W1011" s="1"/>
+      <c r="X1011" s="1"/>
+      <c r="Y1011" s="1"/>
+      <c r="Z1011" s="1"/>
+      <c r="AA1011" s="1"/>
+      <c r="AB1011" s="1"/>
+      <c r="AC1011" s="1"/>
+    </row>
+    <row r="1012" spans="1:29" ht="19.5" x14ac:dyDescent="0.55000000000000004">
+      <c r="A1012" s="1"/>
+      <c r="B1012" s="1"/>
+      <c r="C1012" s="1"/>
+      <c r="D1012" s="1"/>
+      <c r="E1012" s="2"/>
+      <c r="F1012" s="2"/>
+      <c r="G1012" s="1"/>
+      <c r="H1012" s="1"/>
+      <c r="I1012" s="1"/>
+      <c r="J1012" s="1"/>
+      <c r="K1012" s="1"/>
+      <c r="L1012" s="1"/>
+      <c r="M1012" s="1"/>
+      <c r="N1012" s="1"/>
+      <c r="O1012" s="1"/>
+      <c r="P1012" s="1"/>
+      <c r="Q1012" s="1"/>
+      <c r="R1012" s="1"/>
+      <c r="S1012" s="1"/>
+      <c r="T1012" s="1"/>
+      <c r="U1012" s="1"/>
+      <c r="V1012" s="1"/>
+      <c r="W1012" s="1"/>
+      <c r="X1012" s="1"/>
+      <c r="Y1012" s="1"/>
+      <c r="Z1012" s="1"/>
+      <c r="AA1012" s="1"/>
+      <c r="AB1012" s="1"/>
+      <c r="AC1012" s="1"/>
+    </row>
+    <row r="1013" spans="1:29" ht="19.5" x14ac:dyDescent="0.55000000000000004">
+      <c r="A1013" s="1"/>
+      <c r="B1013" s="1"/>
+      <c r="C1013" s="1"/>
+      <c r="D1013" s="1"/>
+      <c r="E1013" s="2"/>
+      <c r="F1013" s="2"/>
+      <c r="G1013" s="1"/>
+      <c r="H1013" s="1"/>
+      <c r="I1013" s="1"/>
+      <c r="J1013" s="1"/>
+      <c r="K1013" s="1"/>
+      <c r="L1013" s="1"/>
+      <c r="M1013" s="1"/>
+      <c r="N1013" s="1"/>
+      <c r="O1013" s="1"/>
+      <c r="P1013" s="1"/>
+      <c r="Q1013" s="1"/>
+      <c r="R1013" s="1"/>
+      <c r="S1013" s="1"/>
+      <c r="T1013" s="1"/>
+      <c r="U1013" s="1"/>
+      <c r="V1013" s="1"/>
+      <c r="W1013" s="1"/>
+      <c r="X1013" s="1"/>
+      <c r="Y1013" s="1"/>
+      <c r="Z1013" s="1"/>
+      <c r="AA1013" s="1"/>
+      <c r="AB1013" s="1"/>
+      <c r="AC1013" s="1"/>
+    </row>
+    <row r="1014" spans="1:29" ht="19.5" x14ac:dyDescent="0.55000000000000004">
+      <c r="A1014" s="1"/>
+      <c r="B1014" s="1"/>
+      <c r="C1014" s="1"/>
+      <c r="D1014" s="1"/>
+      <c r="E1014" s="2"/>
+      <c r="F1014" s="2"/>
+      <c r="G1014" s="1"/>
+      <c r="H1014" s="1"/>
+      <c r="I1014" s="1"/>
+      <c r="J1014" s="1"/>
+      <c r="K1014" s="1"/>
+      <c r="L1014" s="1"/>
+      <c r="M1014" s="1"/>
+      <c r="N1014" s="1"/>
+      <c r="O1014" s="1"/>
+      <c r="P1014" s="1"/>
+      <c r="Q1014" s="1"/>
+      <c r="R1014" s="1"/>
+      <c r="S1014" s="1"/>
+      <c r="T1014" s="1"/>
+      <c r="U1014" s="1"/>
+      <c r="V1014" s="1"/>
+      <c r="W1014" s="1"/>
+      <c r="X1014" s="1"/>
+      <c r="Y1014" s="1"/>
+      <c r="Z1014" s="1"/>
+      <c r="AA1014" s="1"/>
+      <c r="AB1014" s="1"/>
+      <c r="AC1014" s="1"/>
+    </row>
+    <row r="1015" spans="1:29" ht="19.5" x14ac:dyDescent="0.55000000000000004">
+      <c r="A1015" s="1"/>
+      <c r="B1015" s="1"/>
+      <c r="C1015" s="1"/>
+      <c r="D1015" s="1"/>
+      <c r="E1015" s="2"/>
+      <c r="F1015" s="2"/>
+      <c r="G1015" s="1"/>
+      <c r="H1015" s="1"/>
+      <c r="I1015" s="1"/>
+      <c r="J1015" s="1"/>
+      <c r="K1015" s="1"/>
+      <c r="L1015" s="1"/>
+      <c r="M1015" s="1"/>
+      <c r="N1015" s="1"/>
+      <c r="O1015" s="1"/>
+      <c r="P1015" s="1"/>
+      <c r="Q1015" s="1"/>
+      <c r="R1015" s="1"/>
+      <c r="S1015" s="1"/>
+      <c r="T1015" s="1"/>
+      <c r="U1015" s="1"/>
+      <c r="V1015" s="1"/>
+      <c r="W1015" s="1"/>
+      <c r="X1015" s="1"/>
+      <c r="Y1015" s="1"/>
+      <c r="Z1015" s="1"/>
+      <c r="AA1015" s="1"/>
+      <c r="AB1015" s="1"/>
+      <c r="AC1015" s="1"/>
+    </row>
+    <row r="1016" spans="1:29" ht="19.5" x14ac:dyDescent="0.55000000000000004">
+      <c r="A1016" s="1"/>
+      <c r="B1016" s="1"/>
+      <c r="C1016" s="1"/>
+      <c r="D1016" s="1"/>
+      <c r="E1016" s="2"/>
+      <c r="F1016" s="2"/>
+      <c r="G1016" s="1"/>
+      <c r="H1016" s="1"/>
+      <c r="I1016" s="1"/>
+      <c r="J1016" s="1"/>
+      <c r="K1016" s="1"/>
+      <c r="L1016" s="1"/>
+      <c r="M1016" s="1"/>
+      <c r="N1016" s="1"/>
+      <c r="O1016" s="1"/>
+      <c r="P1016" s="1"/>
+      <c r="Q1016" s="1"/>
+      <c r="R1016" s="1"/>
+      <c r="S1016" s="1"/>
+      <c r="T1016" s="1"/>
+      <c r="U1016" s="1"/>
+      <c r="V1016" s="1"/>
+      <c r="W1016" s="1"/>
+      <c r="X1016" s="1"/>
+      <c r="Y1016" s="1"/>
+      <c r="Z1016" s="1"/>
+      <c r="AA1016" s="1"/>
+      <c r="AB1016" s="1"/>
+      <c r="AC1016" s="1"/>
+    </row>
+    <row r="1017" spans="1:29" ht="19.5" x14ac:dyDescent="0.55000000000000004">
+      <c r="A1017" s="1"/>
+      <c r="B1017" s="1"/>
+      <c r="C1017" s="1"/>
+      <c r="D1017" s="1"/>
+      <c r="E1017" s="2"/>
+      <c r="F1017" s="2"/>
+      <c r="G1017" s="1"/>
+      <c r="H1017" s="1"/>
+      <c r="I1017" s="1"/>
+      <c r="J1017" s="1"/>
+      <c r="K1017" s="1"/>
+      <c r="L1017" s="1"/>
+      <c r="M1017" s="1"/>
+      <c r="N1017" s="1"/>
+      <c r="O1017" s="1"/>
+      <c r="P1017" s="1"/>
+      <c r="Q1017" s="1"/>
+      <c r="R1017" s="1"/>
+      <c r="S1017" s="1"/>
+      <c r="T1017" s="1"/>
+      <c r="U1017" s="1"/>
+      <c r="V1017" s="1"/>
+      <c r="W1017" s="1"/>
+      <c r="X1017" s="1"/>
+      <c r="Y1017" s="1"/>
+      <c r="Z1017" s="1"/>
+      <c r="AA1017" s="1"/>
+      <c r="AB1017" s="1"/>
+      <c r="AC1017" s="1"/>
+    </row>
+    <row r="1018" spans="1:29" ht="19.5" x14ac:dyDescent="0.55000000000000004">
+      <c r="A1018" s="1"/>
+      <c r="B1018" s="1"/>
+      <c r="C1018" s="1"/>
+      <c r="D1018" s="1"/>
+      <c r="E1018" s="2"/>
+      <c r="F1018" s="2"/>
+      <c r="G1018" s="1"/>
+      <c r="H1018" s="1"/>
+      <c r="I1018" s="1"/>
+      <c r="J1018" s="1"/>
+      <c r="K1018" s="1"/>
+      <c r="L1018" s="1"/>
+      <c r="M1018" s="1"/>
+      <c r="N1018" s="1"/>
+      <c r="O1018" s="1"/>
+      <c r="P1018" s="1"/>
+      <c r="Q1018" s="1"/>
+      <c r="R1018" s="1"/>
+      <c r="S1018" s="1"/>
+      <c r="T1018" s="1"/>
+      <c r="U1018" s="1"/>
+      <c r="V1018" s="1"/>
+      <c r="W1018" s="1"/>
+      <c r="X1018" s="1"/>
+      <c r="Y1018" s="1"/>
+      <c r="Z1018" s="1"/>
+      <c r="AA1018" s="1"/>
+      <c r="AB1018" s="1"/>
+      <c r="AC1018" s="1"/>
+    </row>
   </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="G4:H4"/>
+  </mergeCells>
+  <phoneticPr fontId="13" type="noConversion"/>
   <dataValidations count="1">
-    <dataValidation type="list" allowBlank="1" sqref="J9:J1007" xr:uid="{00000000-0002-0000-0000-000000000000}">
+    <dataValidation type="list" allowBlank="1" sqref="J9:J1018" xr:uid="{00000000-0002-0000-0000-000000000000}">
       <formula1>"PENDING,IN PROGRESS,BLOCKED,PASS,FAIL"</formula1>
     </dataValidation>
   </dataValidations>
